--- a/Nick and Will_612/Nyquist Part 2/deconvolution Matlab codes/test1_Ba133.xlsx
+++ b/Nick and Will_612/Nyquist Part 2/deconvolution Matlab codes/test1_Ba133.xlsx
@@ -8,19 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickq\Documents\AFIT_Masters\NENG612\Nick and Will_612\Nyquist Part 2\deconvolution Matlab codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{847316AF-30C2-4D01-B6A4-124227617FC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EDB6E04-BC27-4DB2-97F2-E5D76E0C3F33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="420" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1_Ba133" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">test1_Ba133!$H$6,test1_Ba133!$H$8</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">test1_Ba133!$H$6</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">test1_Ba133!$H$29</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Energy Cal</t>
   </si>
@@ -29,6 +61,33 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit to Gaussian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussian </t>
+  </si>
+  <si>
+    <t>Gaussian Params</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Channel</t>
   </si>
 </sst>
 </file>
@@ -6839,6 +6898,163 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1_Ba133!$D$10:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1_Ba133!$G$10:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>130620.95624097052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189657.51968365134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260022.41103275001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336616.19125478127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>411474.31320036843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474934.7670773163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517617.2046585994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532680.68532461883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>517617.2046585994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>474934.7670773163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>411474.31320036843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336616.19125478127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260022.41103275001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189657.51968365134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130620.95624097052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84945.261463813411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52161.366774263348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30244.212042883188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16558.427557475447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5876-4FF5-B5CB-B2BED905E9CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7395,6 +7611,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Counts</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Energy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13614,6 +13860,163 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4DB0-498D-A4D0-F3A1B966430A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1_Ba133!$E$8:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>318.85080000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328.13720000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332.78040000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337.42360000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342.0668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>346.71000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.35320000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355.99639999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360.63960000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>365.28280000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.92600000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>374.56920000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>379.2124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>383.85560000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388.49880000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>397.78520000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>402.42840000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1_Ba133!$G$10:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>130620.95624097052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189657.51968365134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260022.41103275001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336616.19125478127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>411474.31320036843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474934.7670773163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517617.2046585994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532680.68532461883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>517617.2046585994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>474934.7670773163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>411474.31320036843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336616.19125478127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260022.41103275001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189657.51968365134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130620.95624097052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84945.261463813411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52161.366774263348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30244.212042883188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16558.427557475447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4004-49A7-A0FC-8776308A7983}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15471,16 +15874,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394413</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>119549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203913</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>114786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15543,16 +15946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318797</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>131407</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15845,15 +16248,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1024"/>
+  <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C1024"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -15868,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15887,7 +16293,7 @@
         <v>-71.177999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15906,7 +16312,7 @@
         <v>4.6432000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15924,7 +16330,7 @@
         <v>30.972999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15941,8 +16347,11 @@
       <c r="E5">
         <v>356</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15953,8 +16362,17 @@
         <f t="shared" si="0"/>
         <v>-47.961999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15965,8 +16383,20 @@
         <f t="shared" si="0"/>
         <v>-43.318799999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15977,8 +16407,14 @@
         <f t="shared" si="0"/>
         <v>-38.675599999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>23273092.074049801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15989,8 +16425,14 @@
         <f t="shared" si="0"/>
         <v>-34.032399999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16001,8 +16443,28 @@
         <f t="shared" si="0"/>
         <v>-29.389199999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>A85</f>
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E28" si="1">C85</f>
+        <v>318.85080000000005</v>
+      </c>
+      <c r="F10">
+        <f>B85</f>
+        <v>140015</v>
+      </c>
+      <c r="G10">
+        <f>$H$8*(1/($H$6*SQRT(2*3.14159)))*EXP((-1*(D10-$H$7)^2)/(2*$H$6))</f>
+        <v>130620.95624097052</v>
+      </c>
+      <c r="H10">
+        <f>(G10-F10)^2</f>
+        <v>88248058.146560624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16013,8 +16475,28 @@
         <f t="shared" si="0"/>
         <v>-24.745999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" ref="D11:D28" si="2">A86</f>
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>323.49400000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F28" si="3">B86</f>
+        <v>186517</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G28" si="4">$H$8*(1/($H$6*SQRT(2*3.14159)))*EXP((-1*(D11-$H$7)^2)/(2*$H$6))</f>
+        <v>189657.51968365134</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H28" si="5">(G11-F11)^2</f>
+        <v>9862863.8834014814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16025,8 +16507,28 @@
         <f t="shared" si="0"/>
         <v>-20.102799999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>328.13720000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>254616</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>260022.41103275001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>29229280.255041022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16037,8 +16539,28 @@
         <f t="shared" si="0"/>
         <v>-15.459599999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>332.78040000000004</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>337452</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>336616.19125478127</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>698576.25858411111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16049,8 +16571,28 @@
         <f t="shared" si="0"/>
         <v>-10.816399999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>337.42360000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>416164</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>411474.31320036843</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>21993162.278638601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16061,8 +16603,28 @@
         <f t="shared" si="0"/>
         <v>-6.1731999999999942</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>342.0668</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>485228</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>474934.7670773163</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>105950644.00061968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16073,8 +16635,28 @@
         <f t="shared" si="0"/>
         <v>-1.5300000000000011</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>346.71000000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>531484</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>517617.2046585994</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>192288013.04028949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16085,8 +16667,28 @@
         <f t="shared" si="0"/>
         <v>3.1132000000000062</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>351.35320000000002</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>538754</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>532680.68532461883</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>36885151.146200337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16097,8 +16699,28 @@
         <f t="shared" si="0"/>
         <v>7.7564000000000135</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>355.99639999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>512914</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>517617.2046585994</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>22120134.060671058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16109,8 +16731,28 @@
         <f t="shared" si="0"/>
         <v>12.399600000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>360.63960000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>460635</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>474934.7670773163</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>204483338.46549907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16121,8 +16763,28 @@
         <f t="shared" si="0"/>
         <v>17.0428</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>365.28280000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>384236</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>411474.31320036843</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>741925706.00136507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16133,8 +16795,28 @@
         <f t="shared" si="0"/>
         <v>21.686000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>369.92600000000004</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>306293</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>336616.19125478127</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>919495927.87404323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16145,8 +16827,28 @@
         <f t="shared" si="0"/>
         <v>26.329200000000014</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>374.56920000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>235686</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>260022.41103275001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>592260901.95495641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16157,8 +16859,28 @@
         <f t="shared" si="0"/>
         <v>30.972400000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E23">
+        <f>C98</f>
+        <v>379.2124</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>179512</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>189657.51968365134</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>102931569.65135668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16169,8 +16891,28 @@
         <f t="shared" si="0"/>
         <v>35.615600000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>383.85560000000004</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>137788</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>130620.95624097052</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>51366516.243843347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16181,8 +16923,28 @@
         <f t="shared" si="0"/>
         <v>40.258800000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>388.49880000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>108345</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>84945.261463813411</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>547547763.56189573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16193,8 +16955,28 @@
         <f t="shared" si="0"/>
         <v>44.902000000000015</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>393.14200000000005</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>84680</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>52161.366774263348</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1057461506.8699838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16205,8 +16987,28 @@
         <f t="shared" si="0"/>
         <v>49.545200000000008</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>397.78520000000003</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>66398</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>30244.212042883188</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1307096383.648165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16217,8 +17019,28 @@
         <f t="shared" si="0"/>
         <v>54.188400000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>402.42840000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>50815</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>16558.427557475447</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1173512755.509933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16229,8 +17051,12 @@
         <f t="shared" si="0"/>
         <v>58.831600000000009</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>SUM(H10:H28)</f>
+        <v>7205358252.8510475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16242,7 +17068,7 @@
         <v>63.474800000000016</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16253,8 +17079,12 @@
         <f t="shared" si="0"/>
         <v>68.117999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>SQRT(2*LN(2))</f>
+        <v>1.1774100225154747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16265,6 +17095,10 @@
         <f t="shared" si="0"/>
         <v>72.761200000000002</v>
       </c>
+      <c r="H32">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -16670,7 +17504,7 @@
         <v>51343</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="1">A66*$F$3+$F$2</f>
+        <f t="shared" ref="C66:C129" si="6">A66*$F$3+$F$2</f>
         <v>230.63</v>
       </c>
     </row>
@@ -16682,7 +17516,7 @@
         <v>59997</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>235.27320000000003</v>
       </c>
     </row>
@@ -16694,7 +17528,7 @@
         <v>71844</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>239.91640000000001</v>
       </c>
     </row>
@@ -16706,7 +17540,7 @@
         <v>88679</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>244.55960000000005</v>
       </c>
     </row>
@@ -16718,7 +17552,7 @@
         <v>105122</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>249.20280000000002</v>
       </c>
     </row>
@@ -16730,7 +17564,7 @@
         <v>120628</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>253.846</v>
       </c>
     </row>
@@ -16742,7 +17576,7 @@
         <v>133747</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>258.48920000000004</v>
       </c>
     </row>
@@ -16754,7 +17588,7 @@
         <v>147142</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>263.13240000000002</v>
       </c>
     </row>
@@ -16766,7 +17600,7 @@
         <v>161034</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>267.7756</v>
       </c>
     </row>
@@ -16778,7 +17612,7 @@
         <v>177616</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>272.41880000000003</v>
       </c>
     </row>
@@ -16790,7 +17624,7 @@
         <v>197847</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>277.06200000000001</v>
       </c>
     </row>
@@ -16802,7 +17636,7 @@
         <v>211262</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>281.70519999999999</v>
       </c>
     </row>
@@ -16814,7 +17648,7 @@
         <v>217634</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>286.34840000000003</v>
       </c>
     </row>
@@ -16826,7 +17660,7 @@
         <v>215661</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>290.99160000000001</v>
       </c>
     </row>
@@ -16838,7 +17672,7 @@
         <v>194414</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>295.63480000000004</v>
       </c>
     </row>
@@ -16850,7 +17684,7 @@
         <v>167914</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>300.27800000000002</v>
       </c>
     </row>
@@ -16862,7 +17696,7 @@
         <v>140829</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>304.9212</v>
       </c>
     </row>
@@ -16874,7 +17708,7 @@
         <v>119083</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>309.56440000000003</v>
       </c>
     </row>
@@ -16886,7 +17720,7 @@
         <v>117889</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>314.20760000000001</v>
       </c>
     </row>
@@ -16898,7 +17732,7 @@
         <v>140015</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>318.85080000000005</v>
       </c>
     </row>
@@ -16910,7 +17744,7 @@
         <v>186517</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>323.49400000000003</v>
       </c>
     </row>
@@ -16922,7 +17756,7 @@
         <v>254616</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>328.13720000000001</v>
       </c>
     </row>
@@ -16934,7 +17768,7 @@
         <v>337452</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>332.78040000000004</v>
       </c>
     </row>
@@ -16946,7 +17780,7 @@
         <v>416164</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>337.42360000000002</v>
       </c>
     </row>
@@ -16958,7 +17792,7 @@
         <v>485228</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>342.0668</v>
       </c>
     </row>
@@ -16970,7 +17804,7 @@
         <v>531484</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>346.71000000000004</v>
       </c>
     </row>
@@ -16982,7 +17816,7 @@
         <v>538754</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>351.35320000000002</v>
       </c>
     </row>
@@ -16994,7 +17828,7 @@
         <v>512914</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>355.99639999999999</v>
       </c>
     </row>
@@ -17006,7 +17840,7 @@
         <v>460635</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>360.63960000000003</v>
       </c>
     </row>
@@ -17018,7 +17852,7 @@
         <v>384236</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>365.28280000000001</v>
       </c>
     </row>
@@ -17030,7 +17864,7 @@
         <v>306293</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>369.92600000000004</v>
       </c>
     </row>
@@ -17042,7 +17876,7 @@
         <v>235686</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>374.56920000000002</v>
       </c>
     </row>
@@ -17054,7 +17888,7 @@
         <v>179512</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>379.2124</v>
       </c>
     </row>
@@ -17066,7 +17900,7 @@
         <v>137788</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>383.85560000000004</v>
       </c>
     </row>
@@ -17078,7 +17912,7 @@
         <v>108345</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>388.49880000000002</v>
       </c>
     </row>
@@ -17090,7 +17924,7 @@
         <v>84680</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>393.14200000000005</v>
       </c>
     </row>
@@ -17102,7 +17936,7 @@
         <v>66398</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>397.78520000000003</v>
       </c>
     </row>
@@ -17114,7 +17948,7 @@
         <v>50815</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>402.42840000000001</v>
       </c>
     </row>
@@ -17126,7 +17960,7 @@
         <v>36494</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>407.07160000000005</v>
       </c>
     </row>
@@ -17138,7 +17972,7 @@
         <v>25993</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>411.71480000000003</v>
       </c>
     </row>
@@ -17150,7 +17984,7 @@
         <v>18921</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>416.358</v>
       </c>
     </row>
@@ -17162,7 +17996,7 @@
         <v>13634</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>421.00120000000004</v>
       </c>
     </row>
@@ -17174,7 +18008,7 @@
         <v>10901</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>425.64440000000002</v>
       </c>
     </row>
@@ -17186,7 +18020,7 @@
         <v>9459</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>430.2876</v>
       </c>
     </row>
@@ -17198,7 +18032,7 @@
         <v>8548</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>434.93080000000003</v>
       </c>
     </row>
@@ -17210,7 +18044,7 @@
         <v>8700</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>439.57400000000001</v>
       </c>
     </row>
@@ -17222,7 +18056,7 @@
         <v>8676</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>444.21720000000005</v>
       </c>
     </row>
@@ -17234,7 +18068,7 @@
         <v>8457</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>448.86040000000003</v>
       </c>
     </row>
@@ -17246,7 +18080,7 @@
         <v>8198</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>453.50360000000001</v>
       </c>
     </row>
@@ -17258,7 +18092,7 @@
         <v>7948</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>458.14679999999998</v>
       </c>
     </row>
@@ -17270,7 +18104,7 @@
         <v>6993</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>462.79000000000008</v>
       </c>
     </row>
@@ -17282,7 +18116,7 @@
         <v>6270</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>467.43320000000006</v>
       </c>
     </row>
@@ -17294,7 +18128,7 @@
         <v>5365</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>472.07640000000004</v>
       </c>
     </row>
@@ -17306,7 +18140,7 @@
         <v>4490</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>476.71960000000001</v>
       </c>
     </row>
@@ -17318,7 +18152,7 @@
         <v>3624</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>481.36279999999999</v>
       </c>
     </row>
@@ -17330,7 +18164,7 @@
         <v>3126</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>486.00599999999997</v>
       </c>
     </row>
@@ -17342,7 +18176,7 @@
         <v>2793</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>490.64920000000006</v>
       </c>
     </row>
@@ -17354,7 +18188,7 @@
         <v>2380</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>495.29240000000004</v>
       </c>
     </row>
@@ -17366,7 +18200,7 @@
         <v>2264</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>499.93560000000002</v>
       </c>
     </row>
@@ -17378,7 +18212,7 @@
         <v>2173</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>504.5788</v>
       </c>
     </row>
@@ -17390,7 +18224,7 @@
         <v>2146</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>509.22199999999998</v>
       </c>
     </row>
@@ -17402,7 +18236,7 @@
         <v>2060</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>513.86520000000007</v>
       </c>
     </row>
@@ -17414,7 +18248,7 @@
         <v>2015</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>518.50840000000005</v>
       </c>
     </row>
@@ -17426,7 +18260,7 @@
         <v>1934</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>523.15160000000003</v>
       </c>
     </row>
@@ -17438,7 +18272,7 @@
         <v>1907</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C193" si="2">A130*$F$3+$F$2</f>
+        <f t="shared" ref="C130:C193" si="7">A130*$F$3+$F$2</f>
         <v>527.79480000000001</v>
       </c>
     </row>
@@ -17450,7 +18284,7 @@
         <v>1904</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>532.43799999999999</v>
       </c>
     </row>
@@ -17462,7 +18296,7 @@
         <v>1826</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>537.08120000000008</v>
       </c>
     </row>
@@ -17474,7 +18308,7 @@
         <v>1814</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>541.72440000000006</v>
       </c>
     </row>
@@ -17486,7 +18320,7 @@
         <v>1735</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>546.36760000000004</v>
       </c>
     </row>
@@ -17498,7 +18332,7 @@
         <v>1664</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>551.01080000000002</v>
       </c>
     </row>
@@ -17510,7 +18344,7 @@
         <v>1594</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>555.654</v>
       </c>
     </row>
@@ -17522,7 +18356,7 @@
         <v>1526</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>560.29720000000009</v>
       </c>
     </row>
@@ -17534,7 +18368,7 @@
         <v>1523</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>564.94040000000007</v>
       </c>
     </row>
@@ -17546,7 +18380,7 @@
         <v>1474</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>569.58360000000005</v>
       </c>
     </row>
@@ -17558,7 +18392,7 @@
         <v>1528</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>574.22680000000003</v>
       </c>
     </row>
@@ -17570,7 +18404,7 @@
         <v>1414</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>578.87</v>
       </c>
     </row>
@@ -17582,7 +18416,7 @@
         <v>1411</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>583.51319999999998</v>
       </c>
     </row>
@@ -17594,7 +18428,7 @@
         <v>1376</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>588.15640000000008</v>
       </c>
     </row>
@@ -17606,7 +18440,7 @@
         <v>1440</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>592.79960000000005</v>
       </c>
     </row>
@@ -17618,7 +18452,7 @@
         <v>1373</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>597.44280000000003</v>
       </c>
     </row>
@@ -17630,7 +18464,7 @@
         <v>1344</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>602.08600000000001</v>
       </c>
     </row>
@@ -17642,7 +18476,7 @@
         <v>1359</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>606.72919999999999</v>
       </c>
     </row>
@@ -17654,7 +18488,7 @@
         <v>1361</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>611.37240000000008</v>
       </c>
     </row>
@@ -17666,7 +18500,7 @@
         <v>1283</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>616.01560000000006</v>
       </c>
     </row>
@@ -17678,7 +18512,7 @@
         <v>1294</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>620.65880000000004</v>
       </c>
     </row>
@@ -17690,7 +18524,7 @@
         <v>1348</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>625.30200000000002</v>
       </c>
     </row>
@@ -17702,7 +18536,7 @@
         <v>1273</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>629.9452</v>
       </c>
     </row>
@@ -17714,7 +18548,7 @@
         <v>1318</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>634.58839999999998</v>
       </c>
     </row>
@@ -17726,7 +18560,7 @@
         <v>1261</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>639.23160000000007</v>
       </c>
     </row>
@@ -17738,7 +18572,7 @@
         <v>1257</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>643.87480000000005</v>
       </c>
     </row>
@@ -17750,7 +18584,7 @@
         <v>1251</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>648.51800000000003</v>
       </c>
     </row>
@@ -17762,7 +18596,7 @@
         <v>1303</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>653.16120000000001</v>
       </c>
     </row>
@@ -17774,7 +18608,7 @@
         <v>1277</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>657.80439999999999</v>
       </c>
     </row>
@@ -17786,7 +18620,7 @@
         <v>1226</v>
       </c>
       <c r="C159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>662.44760000000008</v>
       </c>
     </row>
@@ -17798,7 +18632,7 @@
         <v>1303</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>667.09080000000006</v>
       </c>
     </row>
@@ -17810,7 +18644,7 @@
         <v>1287</v>
       </c>
       <c r="C161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>671.73400000000004</v>
       </c>
     </row>
@@ -17822,7 +18656,7 @@
         <v>1275</v>
       </c>
       <c r="C162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>676.37720000000002</v>
       </c>
     </row>
@@ -17834,7 +18668,7 @@
         <v>1219</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>681.0204</v>
       </c>
     </row>
@@ -17846,7 +18680,7 @@
         <v>1265</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>685.66360000000009</v>
       </c>
     </row>
@@ -17858,7 +18692,7 @@
         <v>1207</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>690.30680000000007</v>
       </c>
     </row>
@@ -17870,7 +18704,7 @@
         <v>1252</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>694.95</v>
       </c>
     </row>
@@ -17882,7 +18716,7 @@
         <v>1197</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>699.59320000000002</v>
       </c>
     </row>
@@ -17894,7 +18728,7 @@
         <v>1181</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>704.2364</v>
       </c>
     </row>
@@ -17906,7 +18740,7 @@
         <v>1248</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>708.8796000000001</v>
       </c>
     </row>
@@ -17918,7 +18752,7 @@
         <v>1112</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>713.52280000000007</v>
       </c>
     </row>
@@ -17930,7 +18764,7 @@
         <v>1102</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>718.16600000000005</v>
       </c>
     </row>
@@ -17942,7 +18776,7 @@
         <v>1089</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>722.80920000000003</v>
       </c>
     </row>
@@ -17954,7 +18788,7 @@
         <v>1057</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>727.45240000000001</v>
       </c>
     </row>
@@ -17966,7 +18800,7 @@
         <v>1016</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>732.09559999999999</v>
       </c>
     </row>
@@ -17978,7 +18812,7 @@
         <v>1000</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>736.73880000000008</v>
       </c>
     </row>
@@ -17990,7 +18824,7 @@
         <v>1035</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>741.38200000000006</v>
       </c>
     </row>
@@ -18002,7 +18836,7 @@
         <v>1013</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>746.02520000000004</v>
       </c>
     </row>
@@ -18014,7 +18848,7 @@
         <v>993</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>750.66840000000002</v>
       </c>
     </row>
@@ -18026,7 +18860,7 @@
         <v>948</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>755.3116</v>
       </c>
     </row>
@@ -18038,7 +18872,7 @@
         <v>998</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>759.95480000000009</v>
       </c>
     </row>
@@ -18050,7 +18884,7 @@
         <v>1003</v>
       </c>
       <c r="C181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>764.59800000000007</v>
       </c>
     </row>
@@ -18062,7 +18896,7 @@
         <v>885</v>
       </c>
       <c r="C182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>769.24120000000005</v>
       </c>
     </row>
@@ -18074,7 +18908,7 @@
         <v>882</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>773.88440000000003</v>
       </c>
     </row>
@@ -18086,7 +18920,7 @@
         <v>865</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>778.52760000000001</v>
       </c>
     </row>
@@ -18098,7 +18932,7 @@
         <v>862</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>783.17079999999999</v>
       </c>
     </row>
@@ -18110,7 +18944,7 @@
         <v>834</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>787.81400000000008</v>
       </c>
     </row>
@@ -18122,7 +18956,7 @@
         <v>797</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>792.45720000000006</v>
       </c>
     </row>
@@ -18134,7 +18968,7 @@
         <v>777</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>797.10040000000004</v>
       </c>
     </row>
@@ -18146,7 +18980,7 @@
         <v>788</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>801.74360000000001</v>
       </c>
     </row>
@@ -18158,7 +18992,7 @@
         <v>742</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>806.38679999999999</v>
       </c>
     </row>
@@ -18170,7 +19004,7 @@
         <v>742</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>811.03000000000009</v>
       </c>
     </row>
@@ -18182,7 +19016,7 @@
         <v>716</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>815.67320000000007</v>
       </c>
     </row>
@@ -18194,7 +19028,7 @@
         <v>699</v>
       </c>
       <c r="C193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>820.31640000000004</v>
       </c>
     </row>
@@ -18206,7 +19040,7 @@
         <v>698</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="3">A194*$F$3+$F$2</f>
+        <f t="shared" ref="C194:C257" si="8">A194*$F$3+$F$2</f>
         <v>824.95960000000002</v>
       </c>
     </row>
@@ -18218,7 +19052,7 @@
         <v>731</v>
       </c>
       <c r="C195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>829.6028</v>
       </c>
     </row>
@@ -18230,7 +19064,7 @@
         <v>669</v>
       </c>
       <c r="C196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>834.24600000000009</v>
       </c>
     </row>
@@ -18242,7 +19076,7 @@
         <v>670</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>838.88920000000007</v>
       </c>
     </row>
@@ -18254,7 +19088,7 @@
         <v>690</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>843.53240000000005</v>
       </c>
     </row>
@@ -18266,7 +19100,7 @@
         <v>692</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>848.17560000000003</v>
       </c>
     </row>
@@ -18278,7 +19112,7 @@
         <v>702</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>852.81880000000001</v>
       </c>
     </row>
@@ -18290,7 +19124,7 @@
         <v>708</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>857.4620000000001</v>
       </c>
     </row>
@@ -18302,7 +19136,7 @@
         <v>654</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>862.10520000000008</v>
       </c>
     </row>
@@ -18314,7 +19148,7 @@
         <v>660</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>866.74840000000006</v>
       </c>
     </row>
@@ -18326,7 +19160,7 @@
         <v>681</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>871.39160000000004</v>
       </c>
     </row>
@@ -18338,7 +19172,7 @@
         <v>685</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>876.03480000000002</v>
       </c>
     </row>
@@ -18350,7 +19184,7 @@
         <v>653</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>880.678</v>
       </c>
     </row>
@@ -18362,7 +19196,7 @@
         <v>713</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>885.32120000000009</v>
       </c>
     </row>
@@ -18374,7 +19208,7 @@
         <v>719</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>889.96440000000007</v>
       </c>
     </row>
@@ -18386,7 +19220,7 @@
         <v>699</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>894.60760000000005</v>
       </c>
     </row>
@@ -18398,7 +19232,7 @@
         <v>659</v>
       </c>
       <c r="C210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>899.25080000000003</v>
       </c>
     </row>
@@ -18410,7 +19244,7 @@
         <v>725</v>
       </c>
       <c r="C211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>903.89400000000001</v>
       </c>
     </row>
@@ -18422,7 +19256,7 @@
         <v>683</v>
       </c>
       <c r="C212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>908.5372000000001</v>
       </c>
     </row>
@@ -18434,7 +19268,7 @@
         <v>682</v>
       </c>
       <c r="C213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>913.18040000000008</v>
       </c>
     </row>
@@ -18446,7 +19280,7 @@
         <v>691</v>
       </c>
       <c r="C214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>917.82360000000006</v>
       </c>
     </row>
@@ -18458,7 +19292,7 @@
         <v>650</v>
       </c>
       <c r="C215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>922.46680000000003</v>
       </c>
     </row>
@@ -18470,7 +19304,7 @@
         <v>652</v>
       </c>
       <c r="C216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>927.11</v>
       </c>
     </row>
@@ -18482,7 +19316,7 @@
         <v>693</v>
       </c>
       <c r="C217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>931.75319999999999</v>
       </c>
     </row>
@@ -18494,7 +19328,7 @@
         <v>652</v>
       </c>
       <c r="C218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>936.39640000000009</v>
       </c>
     </row>
@@ -18506,7 +19340,7 @@
         <v>618</v>
       </c>
       <c r="C219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>941.03960000000006</v>
       </c>
     </row>
@@ -18518,7 +19352,7 @@
         <v>615</v>
       </c>
       <c r="C220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>945.68280000000004</v>
       </c>
     </row>
@@ -18530,7 +19364,7 @@
         <v>566</v>
       </c>
       <c r="C221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>950.32600000000002</v>
       </c>
     </row>
@@ -18542,7 +19376,7 @@
         <v>629</v>
       </c>
       <c r="C222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>954.96920000000011</v>
       </c>
     </row>
@@ -18554,7 +19388,7 @@
         <v>611</v>
       </c>
       <c r="C223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>959.61240000000009</v>
       </c>
     </row>
@@ -18566,7 +19400,7 @@
         <v>591</v>
       </c>
       <c r="C224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>964.25560000000007</v>
       </c>
     </row>
@@ -18578,7 +19412,7 @@
         <v>567</v>
       </c>
       <c r="C225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>968.89880000000005</v>
       </c>
     </row>
@@ -18590,7 +19424,7 @@
         <v>601</v>
       </c>
       <c r="C226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>973.54200000000003</v>
       </c>
     </row>
@@ -18602,7 +19436,7 @@
         <v>580</v>
       </c>
       <c r="C227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>978.18520000000001</v>
       </c>
     </row>
@@ -18614,7 +19448,7 @@
         <v>582</v>
       </c>
       <c r="C228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>982.82839999999999</v>
       </c>
     </row>
@@ -18626,7 +19460,7 @@
         <v>577</v>
       </c>
       <c r="C229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>987.47159999999997</v>
       </c>
     </row>
@@ -18638,7 +19472,7 @@
         <v>563</v>
       </c>
       <c r="C230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>992.11479999999995</v>
       </c>
     </row>
@@ -18650,7 +19484,7 @@
         <v>557</v>
       </c>
       <c r="C231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.75800000000015</v>
       </c>
     </row>
@@ -18662,7 +19496,7 @@
         <v>546</v>
       </c>
       <c r="C232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1001.4012000000001</v>
       </c>
     </row>
@@ -18674,7 +19508,7 @@
         <v>585</v>
       </c>
       <c r="C233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1006.0444000000001</v>
       </c>
     </row>
@@ -18686,7 +19520,7 @@
         <v>554</v>
       </c>
       <c r="C234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1010.6876000000001</v>
       </c>
     </row>
@@ -18698,7 +19532,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1015.3308000000001</v>
       </c>
     </row>
@@ -18710,7 +19544,7 @@
         <v>539</v>
       </c>
       <c r="C236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1019.974</v>
       </c>
     </row>
@@ -18722,7 +19556,7 @@
         <v>513</v>
       </c>
       <c r="C237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1024.6172000000001</v>
       </c>
     </row>
@@ -18734,7 +19568,7 @@
         <v>587</v>
       </c>
       <c r="C238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1029.2604000000001</v>
       </c>
     </row>
@@ -18746,7 +19580,7 @@
         <v>556</v>
       </c>
       <c r="C239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1033.9036000000001</v>
       </c>
     </row>
@@ -18758,7 +19592,7 @@
         <v>546</v>
       </c>
       <c r="C240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1038.5468000000001</v>
       </c>
     </row>
@@ -18770,7 +19604,7 @@
         <v>584</v>
       </c>
       <c r="C241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1043.19</v>
       </c>
     </row>
@@ -18782,7 +19616,7 @@
         <v>547</v>
       </c>
       <c r="C242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1047.8332</v>
       </c>
     </row>
@@ -18794,7 +19628,7 @@
         <v>515</v>
       </c>
       <c r="C243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1052.4764</v>
       </c>
     </row>
@@ -18806,7 +19640,7 @@
         <v>566</v>
       </c>
       <c r="C244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1057.1196</v>
       </c>
     </row>
@@ -18818,7 +19652,7 @@
         <v>485</v>
       </c>
       <c r="C245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1061.7628</v>
       </c>
     </row>
@@ -18830,7 +19664,7 @@
         <v>545</v>
       </c>
       <c r="C246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1066.4059999999999</v>
       </c>
     </row>
@@ -18842,7 +19676,7 @@
         <v>525</v>
       </c>
       <c r="C247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1071.0491999999999</v>
       </c>
     </row>
@@ -18854,7 +19688,7 @@
         <v>558</v>
       </c>
       <c r="C248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1075.6923999999999</v>
       </c>
     </row>
@@ -18866,7 +19700,7 @@
         <v>517</v>
       </c>
       <c r="C249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1080.3355999999999</v>
       </c>
     </row>
@@ -18878,7 +19712,7 @@
         <v>512</v>
       </c>
       <c r="C250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1084.9787999999999</v>
       </c>
     </row>
@@ -18890,7 +19724,7 @@
         <v>520</v>
       </c>
       <c r="C251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1089.6219999999998</v>
       </c>
     </row>
@@ -18902,7 +19736,7 @@
         <v>564</v>
       </c>
       <c r="C252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1094.2652000000003</v>
       </c>
     </row>
@@ -18914,7 +19748,7 @@
         <v>517</v>
       </c>
       <c r="C253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1098.9084000000003</v>
       </c>
     </row>
@@ -18926,7 +19760,7 @@
         <v>495</v>
       </c>
       <c r="C254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1103.5516000000002</v>
       </c>
     </row>
@@ -18938,7 +19772,7 @@
         <v>584</v>
       </c>
       <c r="C255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1108.1948000000002</v>
       </c>
     </row>
@@ -18950,7 +19784,7 @@
         <v>502</v>
       </c>
       <c r="C256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1112.8380000000002</v>
       </c>
     </row>
@@ -18962,7 +19796,7 @@
         <v>471</v>
       </c>
       <c r="C257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1117.4812000000002</v>
       </c>
     </row>
@@ -18974,7 +19808,7 @@
         <v>502</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C321" si="4">A258*$F$3+$F$2</f>
+        <f t="shared" ref="C258:C321" si="9">A258*$F$3+$F$2</f>
         <v>1122.1244000000002</v>
       </c>
     </row>
@@ -18986,7 +19820,7 @@
         <v>492</v>
       </c>
       <c r="C259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1126.7676000000001</v>
       </c>
     </row>
@@ -18998,7 +19832,7 @@
         <v>497</v>
       </c>
       <c r="C260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1131.4108000000001</v>
       </c>
     </row>
@@ -19010,7 +19844,7 @@
         <v>482</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1136.0540000000001</v>
       </c>
     </row>
@@ -19022,7 +19856,7 @@
         <v>476</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1140.6972000000001</v>
       </c>
     </row>
@@ -19034,7 +19868,7 @@
         <v>503</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1145.3404</v>
       </c>
     </row>
@@ -19046,7 +19880,7 @@
         <v>479</v>
       </c>
       <c r="C264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1149.9836</v>
       </c>
     </row>
@@ -19058,7 +19892,7 @@
         <v>524</v>
       </c>
       <c r="C265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1154.6268</v>
       </c>
     </row>
@@ -19070,7 +19904,7 @@
         <v>485</v>
       </c>
       <c r="C266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1159.27</v>
       </c>
     </row>
@@ -19082,7 +19916,7 @@
         <v>480</v>
       </c>
       <c r="C267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1163.9132</v>
       </c>
     </row>
@@ -19094,7 +19928,7 @@
         <v>464</v>
       </c>
       <c r="C268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1168.5563999999999</v>
       </c>
     </row>
@@ -19106,7 +19940,7 @@
         <v>497</v>
       </c>
       <c r="C269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1173.1995999999999</v>
       </c>
     </row>
@@ -19118,7 +19952,7 @@
         <v>471</v>
       </c>
       <c r="C270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1177.8427999999999</v>
       </c>
     </row>
@@ -19130,7 +19964,7 @@
         <v>458</v>
       </c>
       <c r="C271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1182.4859999999999</v>
       </c>
     </row>
@@ -19142,7 +19976,7 @@
         <v>461</v>
       </c>
       <c r="C272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1187.1291999999999</v>
       </c>
     </row>
@@ -19154,7 +19988,7 @@
         <v>480</v>
       </c>
       <c r="C273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1191.7724000000003</v>
       </c>
     </row>
@@ -19166,7 +20000,7 @@
         <v>475</v>
       </c>
       <c r="C274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1196.4156000000003</v>
       </c>
     </row>
@@ -19178,7 +20012,7 @@
         <v>525</v>
       </c>
       <c r="C275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1201.0588000000002</v>
       </c>
     </row>
@@ -19190,7 +20024,7 @@
         <v>477</v>
       </c>
       <c r="C276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1205.7020000000002</v>
       </c>
     </row>
@@ -19202,7 +20036,7 @@
         <v>482</v>
       </c>
       <c r="C277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1210.3452000000002</v>
       </c>
     </row>
@@ -19214,7 +20048,7 @@
         <v>485</v>
       </c>
       <c r="C278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1214.9884000000002</v>
       </c>
     </row>
@@ -19226,7 +20060,7 @@
         <v>451</v>
       </c>
       <c r="C279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1219.6316000000002</v>
       </c>
     </row>
@@ -19238,7 +20072,7 @@
         <v>481</v>
       </c>
       <c r="C280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1224.2748000000001</v>
       </c>
     </row>
@@ -19250,7 +20084,7 @@
         <v>432</v>
       </c>
       <c r="C281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1228.9180000000001</v>
       </c>
     </row>
@@ -19262,7 +20096,7 @@
         <v>464</v>
       </c>
       <c r="C282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1233.5612000000001</v>
       </c>
     </row>
@@ -19274,7 +20108,7 @@
         <v>432</v>
       </c>
       <c r="C283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1238.2044000000001</v>
       </c>
     </row>
@@ -19286,7 +20120,7 @@
         <v>456</v>
       </c>
       <c r="C284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1242.8476000000001</v>
       </c>
     </row>
@@ -19298,7 +20132,7 @@
         <v>460</v>
       </c>
       <c r="C285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1247.4908</v>
       </c>
     </row>
@@ -19310,7 +20144,7 @@
         <v>468</v>
       </c>
       <c r="C286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1252.134</v>
       </c>
     </row>
@@ -19322,7 +20156,7 @@
         <v>426</v>
       </c>
       <c r="C287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1256.7772</v>
       </c>
     </row>
@@ -19334,7 +20168,7 @@
         <v>447</v>
       </c>
       <c r="C288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1261.4204</v>
       </c>
     </row>
@@ -19346,7 +20180,7 @@
         <v>465</v>
       </c>
       <c r="C289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1266.0636</v>
       </c>
     </row>
@@ -19358,7 +20192,7 @@
         <v>445</v>
       </c>
       <c r="C290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1270.7067999999999</v>
       </c>
     </row>
@@ -19370,7 +20204,7 @@
         <v>431</v>
       </c>
       <c r="C291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1275.3499999999999</v>
       </c>
     </row>
@@ -19382,7 +20216,7 @@
         <v>435</v>
       </c>
       <c r="C292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1279.9931999999999</v>
       </c>
     </row>
@@ -19394,7 +20228,7 @@
         <v>428</v>
       </c>
       <c r="C293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1284.6363999999999</v>
       </c>
     </row>
@@ -19406,7 +20240,7 @@
         <v>432</v>
       </c>
       <c r="C294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1289.2795999999998</v>
       </c>
     </row>
@@ -19418,7 +20252,7 @@
         <v>439</v>
       </c>
       <c r="C295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1293.9228000000003</v>
       </c>
     </row>
@@ -19430,7 +20264,7 @@
         <v>444</v>
       </c>
       <c r="C296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1298.5660000000003</v>
       </c>
     </row>
@@ -19442,7 +20276,7 @@
         <v>417</v>
       </c>
       <c r="C297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1303.2092000000002</v>
       </c>
     </row>
@@ -19454,7 +20288,7 @@
         <v>445</v>
       </c>
       <c r="C298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1307.8524000000002</v>
       </c>
     </row>
@@ -19466,7 +20300,7 @@
         <v>452</v>
       </c>
       <c r="C299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1312.4956000000002</v>
       </c>
     </row>
@@ -19478,7 +20312,7 @@
         <v>408</v>
       </c>
       <c r="C300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1317.1388000000002</v>
       </c>
     </row>
@@ -19490,7 +20324,7 @@
         <v>426</v>
       </c>
       <c r="C301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1321.7820000000002</v>
       </c>
     </row>
@@ -19502,7 +20336,7 @@
         <v>459</v>
       </c>
       <c r="C302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1326.4252000000001</v>
       </c>
     </row>
@@ -19514,7 +20348,7 @@
         <v>459</v>
       </c>
       <c r="C303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1331.0684000000001</v>
       </c>
     </row>
@@ -19526,7 +20360,7 @@
         <v>461</v>
       </c>
       <c r="C304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1335.7116000000001</v>
       </c>
     </row>
@@ -19538,7 +20372,7 @@
         <v>456</v>
       </c>
       <c r="C305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1340.3548000000001</v>
       </c>
     </row>
@@ -19550,7 +20384,7 @@
         <v>417</v>
       </c>
       <c r="C306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1344.998</v>
       </c>
     </row>
@@ -19562,7 +20396,7 @@
         <v>448</v>
       </c>
       <c r="C307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1349.6412</v>
       </c>
     </row>
@@ -19574,7 +20408,7 @@
         <v>463</v>
       </c>
       <c r="C308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1354.2844</v>
       </c>
     </row>
@@ -19586,7 +20420,7 @@
         <v>455</v>
       </c>
       <c r="C309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1358.9276</v>
       </c>
     </row>
@@ -19598,7 +20432,7 @@
         <v>461</v>
       </c>
       <c r="C310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1363.5708</v>
       </c>
     </row>
@@ -19610,7 +20444,7 @@
         <v>461</v>
       </c>
       <c r="C311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1368.2139999999999</v>
       </c>
     </row>
@@ -19622,7 +20456,7 @@
         <v>459</v>
       </c>
       <c r="C312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1372.8571999999999</v>
       </c>
     </row>
@@ -19634,7 +20468,7 @@
         <v>462</v>
       </c>
       <c r="C313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1377.5003999999999</v>
       </c>
     </row>
@@ -19646,7 +20480,7 @@
         <v>474</v>
       </c>
       <c r="C314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1382.1435999999999</v>
       </c>
     </row>
@@ -19658,7 +20492,7 @@
         <v>417</v>
       </c>
       <c r="C315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1386.7867999999999</v>
       </c>
     </row>
@@ -19670,7 +20504,7 @@
         <v>434</v>
       </c>
       <c r="C316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1391.4300000000003</v>
       </c>
     </row>
@@ -19682,7 +20516,7 @@
         <v>395</v>
       </c>
       <c r="C317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1396.0732000000003</v>
       </c>
     </row>
@@ -19694,7 +20528,7 @@
         <v>416</v>
       </c>
       <c r="C318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1400.7164000000002</v>
       </c>
     </row>
@@ -19706,7 +20540,7 @@
         <v>404</v>
       </c>
       <c r="C319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1405.3596000000002</v>
       </c>
     </row>
@@ -19718,7 +20552,7 @@
         <v>379</v>
       </c>
       <c r="C320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1410.0028000000002</v>
       </c>
     </row>
@@ -19730,7 +20564,7 @@
         <v>383</v>
       </c>
       <c r="C321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1414.6460000000002</v>
       </c>
     </row>
@@ -19742,7 +20576,7 @@
         <v>358</v>
       </c>
       <c r="C322">
-        <f t="shared" ref="C322:C385" si="5">A322*$F$3+$F$2</f>
+        <f t="shared" ref="C322:C385" si="10">A322*$F$3+$F$2</f>
         <v>1419.2892000000002</v>
       </c>
     </row>
@@ -19754,7 +20588,7 @@
         <v>353</v>
       </c>
       <c r="C323">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1423.9324000000001</v>
       </c>
     </row>
@@ -19766,7 +20600,7 @@
         <v>345</v>
       </c>
       <c r="C324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1428.5756000000001</v>
       </c>
     </row>
@@ -19778,7 +20612,7 @@
         <v>354</v>
       </c>
       <c r="C325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1433.2188000000001</v>
       </c>
     </row>
@@ -19790,7 +20624,7 @@
         <v>340</v>
       </c>
       <c r="C326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1437.8620000000001</v>
       </c>
     </row>
@@ -19802,7 +20636,7 @@
         <v>369</v>
       </c>
       <c r="C327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1442.5052000000001</v>
       </c>
     </row>
@@ -19814,7 +20648,7 @@
         <v>308</v>
       </c>
       <c r="C328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1447.1484</v>
       </c>
     </row>
@@ -19826,7 +20660,7 @@
         <v>337</v>
       </c>
       <c r="C329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1451.7916</v>
       </c>
     </row>
@@ -19838,7 +20672,7 @@
         <v>341</v>
       </c>
       <c r="C330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1456.4348</v>
       </c>
     </row>
@@ -19850,7 +20684,7 @@
         <v>336</v>
       </c>
       <c r="C331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1461.078</v>
       </c>
     </row>
@@ -19862,7 +20696,7 @@
         <v>315</v>
       </c>
       <c r="C332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1465.7212</v>
       </c>
     </row>
@@ -19874,7 +20708,7 @@
         <v>310</v>
       </c>
       <c r="C333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1470.3643999999999</v>
       </c>
     </row>
@@ -19886,7 +20720,7 @@
         <v>327</v>
       </c>
       <c r="C334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1475.0075999999999</v>
       </c>
     </row>
@@ -19898,7 +20732,7 @@
         <v>320</v>
       </c>
       <c r="C335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1479.6507999999999</v>
       </c>
     </row>
@@ -19910,7 +20744,7 @@
         <v>331</v>
       </c>
       <c r="C336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1484.2939999999999</v>
       </c>
     </row>
@@ -19922,7 +20756,7 @@
         <v>327</v>
       </c>
       <c r="C337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1488.9372000000003</v>
       </c>
     </row>
@@ -19934,7 +20768,7 @@
         <v>316</v>
       </c>
       <c r="C338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1493.5804000000003</v>
       </c>
     </row>
@@ -19946,7 +20780,7 @@
         <v>366</v>
       </c>
       <c r="C339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1498.2236000000003</v>
       </c>
     </row>
@@ -19958,7 +20792,7 @@
         <v>346</v>
       </c>
       <c r="C340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1502.8668000000002</v>
       </c>
     </row>
@@ -19970,7 +20804,7 @@
         <v>346</v>
       </c>
       <c r="C341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1507.5100000000002</v>
       </c>
     </row>
@@ -19982,7 +20816,7 @@
         <v>335</v>
       </c>
       <c r="C342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1512.1532000000002</v>
       </c>
     </row>
@@ -19994,7 +20828,7 @@
         <v>366</v>
       </c>
       <c r="C343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1516.7964000000002</v>
       </c>
     </row>
@@ -20006,7 +20840,7 @@
         <v>347</v>
       </c>
       <c r="C344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1521.4396000000002</v>
       </c>
     </row>
@@ -20018,7 +20852,7 @@
         <v>333</v>
       </c>
       <c r="C345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1526.0828000000001</v>
       </c>
     </row>
@@ -20030,7 +20864,7 @@
         <v>336</v>
       </c>
       <c r="C346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1530.7260000000001</v>
       </c>
     </row>
@@ -20042,7 +20876,7 @@
         <v>402</v>
       </c>
       <c r="C347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1535.3692000000001</v>
       </c>
     </row>
@@ -20054,7 +20888,7 @@
         <v>358</v>
       </c>
       <c r="C348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1540.0124000000001</v>
       </c>
     </row>
@@ -20066,7 +20900,7 @@
         <v>337</v>
       </c>
       <c r="C349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1544.6556</v>
       </c>
     </row>
@@ -20078,7 +20912,7 @@
         <v>360</v>
       </c>
       <c r="C350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1549.2988</v>
       </c>
     </row>
@@ -20090,7 +20924,7 @@
         <v>351</v>
       </c>
       <c r="C351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1553.942</v>
       </c>
     </row>
@@ -20102,7 +20936,7 @@
         <v>375</v>
       </c>
       <c r="C352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1558.5852</v>
       </c>
     </row>
@@ -20114,7 +20948,7 @@
         <v>394</v>
       </c>
       <c r="C353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1563.2284</v>
       </c>
     </row>
@@ -20126,7 +20960,7 @@
         <v>374</v>
       </c>
       <c r="C354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1567.8715999999999</v>
       </c>
     </row>
@@ -20138,7 +20972,7 @@
         <v>348</v>
       </c>
       <c r="C355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1572.5147999999999</v>
       </c>
     </row>
@@ -20150,7 +20984,7 @@
         <v>368</v>
       </c>
       <c r="C356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1577.1579999999999</v>
       </c>
     </row>
@@ -20162,7 +20996,7 @@
         <v>398</v>
       </c>
       <c r="C357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1581.8011999999999</v>
       </c>
     </row>
@@ -20174,7 +21008,7 @@
         <v>349</v>
       </c>
       <c r="C358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1586.4443999999999</v>
       </c>
     </row>
@@ -20186,7 +21020,7 @@
         <v>331</v>
       </c>
       <c r="C359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1591.0876000000003</v>
       </c>
     </row>
@@ -20198,7 +21032,7 @@
         <v>329</v>
       </c>
       <c r="C360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1595.7308000000003</v>
       </c>
     </row>
@@ -20210,7 +21044,7 @@
         <v>342</v>
       </c>
       <c r="C361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1600.3740000000003</v>
       </c>
     </row>
@@ -20222,7 +21056,7 @@
         <v>301</v>
       </c>
       <c r="C362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1605.0172000000002</v>
       </c>
     </row>
@@ -20234,7 +21068,7 @@
         <v>353</v>
       </c>
       <c r="C363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1609.6604000000002</v>
       </c>
     </row>
@@ -20246,7 +21080,7 @@
         <v>312</v>
       </c>
       <c r="C364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1614.3036000000002</v>
       </c>
     </row>
@@ -20258,7 +21092,7 @@
         <v>303</v>
       </c>
       <c r="C365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1618.9468000000002</v>
       </c>
     </row>
@@ -20270,7 +21104,7 @@
         <v>303</v>
       </c>
       <c r="C366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1623.5900000000001</v>
       </c>
     </row>
@@ -20282,7 +21116,7 @@
         <v>260</v>
       </c>
       <c r="C367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1628.2332000000001</v>
       </c>
     </row>
@@ -20294,7 +21128,7 @@
         <v>259</v>
       </c>
       <c r="C368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1632.8764000000001</v>
       </c>
     </row>
@@ -20306,7 +21140,7 @@
         <v>262</v>
       </c>
       <c r="C369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1637.5196000000001</v>
       </c>
     </row>
@@ -20318,7 +21152,7 @@
         <v>273</v>
       </c>
       <c r="C370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1642.1628000000001</v>
       </c>
     </row>
@@ -20330,7 +21164,7 @@
         <v>280</v>
       </c>
       <c r="C371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1646.806</v>
       </c>
     </row>
@@ -20342,7 +21176,7 @@
         <v>240</v>
       </c>
       <c r="C372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1651.4492</v>
       </c>
     </row>
@@ -20354,7 +21188,7 @@
         <v>270</v>
       </c>
       <c r="C373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1656.0924</v>
       </c>
     </row>
@@ -20366,7 +21200,7 @@
         <v>277</v>
       </c>
       <c r="C374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1660.7356</v>
       </c>
     </row>
@@ -20378,7 +21212,7 @@
         <v>220</v>
       </c>
       <c r="C375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1665.3788</v>
       </c>
     </row>
@@ -20390,7 +21224,7 @@
         <v>240</v>
       </c>
       <c r="C376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1670.0219999999999</v>
       </c>
     </row>
@@ -20402,7 +21236,7 @@
         <v>224</v>
       </c>
       <c r="C377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1674.6651999999999</v>
       </c>
     </row>
@@ -20414,7 +21248,7 @@
         <v>204</v>
       </c>
       <c r="C378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1679.3083999999999</v>
       </c>
     </row>
@@ -20426,7 +21260,7 @@
         <v>250</v>
       </c>
       <c r="C379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1683.9515999999999</v>
       </c>
     </row>
@@ -20438,7 +21272,7 @@
         <v>233</v>
       </c>
       <c r="C380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1688.5948000000003</v>
       </c>
     </row>
@@ -20450,7 +21284,7 @@
         <v>222</v>
       </c>
       <c r="C381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1693.2380000000003</v>
       </c>
     </row>
@@ -20462,7 +21296,7 @@
         <v>247</v>
       </c>
       <c r="C382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1697.8812000000003</v>
       </c>
     </row>
@@ -20474,7 +21308,7 @@
         <v>213</v>
       </c>
       <c r="C383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1702.5244000000002</v>
       </c>
     </row>
@@ -20486,7 +21320,7 @@
         <v>219</v>
       </c>
       <c r="C384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1707.1676000000002</v>
       </c>
     </row>
@@ -20498,7 +21332,7 @@
         <v>203</v>
       </c>
       <c r="C385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1711.8108000000002</v>
       </c>
     </row>
@@ -20510,7 +21344,7 @@
         <v>208</v>
       </c>
       <c r="C386">
-        <f t="shared" ref="C386:C449" si="6">A386*$F$3+$F$2</f>
+        <f t="shared" ref="C386:C449" si="11">A386*$F$3+$F$2</f>
         <v>1716.4540000000002</v>
       </c>
     </row>
@@ -20522,7 +21356,7 @@
         <v>211</v>
       </c>
       <c r="C387">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1721.0972000000002</v>
       </c>
     </row>
@@ -20534,7 +21368,7 @@
         <v>207</v>
       </c>
       <c r="C388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1725.7404000000001</v>
       </c>
     </row>
@@ -20546,7 +21380,7 @@
         <v>221</v>
       </c>
       <c r="C389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1730.3836000000001</v>
       </c>
     </row>
@@ -20558,7 +21392,7 @@
         <v>196</v>
       </c>
       <c r="C390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1735.0268000000001</v>
       </c>
     </row>
@@ -20570,7 +21404,7 @@
         <v>245</v>
       </c>
       <c r="C391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1739.67</v>
       </c>
     </row>
@@ -20582,7 +21416,7 @@
         <v>210</v>
       </c>
       <c r="C392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1744.3132000000001</v>
       </c>
     </row>
@@ -20594,7 +21428,7 @@
         <v>191</v>
       </c>
       <c r="C393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1748.9564</v>
       </c>
     </row>
@@ -20606,7 +21440,7 @@
         <v>190</v>
       </c>
       <c r="C394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1753.5996</v>
       </c>
     </row>
@@ -20618,7 +21452,7 @@
         <v>224</v>
       </c>
       <c r="C395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1758.2428</v>
       </c>
     </row>
@@ -20630,7 +21464,7 @@
         <v>186</v>
       </c>
       <c r="C396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1762.886</v>
       </c>
     </row>
@@ -20642,7 +21476,7 @@
         <v>202</v>
       </c>
       <c r="C397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1767.5291999999999</v>
       </c>
     </row>
@@ -20654,7 +21488,7 @@
         <v>189</v>
       </c>
       <c r="C398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1772.1723999999999</v>
       </c>
     </row>
@@ -20666,7 +21500,7 @@
         <v>208</v>
       </c>
       <c r="C399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1776.8155999999999</v>
       </c>
     </row>
@@ -20678,7 +21512,7 @@
         <v>191</v>
       </c>
       <c r="C400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1781.4587999999999</v>
       </c>
     </row>
@@ -20690,7 +21524,7 @@
         <v>189</v>
       </c>
       <c r="C401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1786.1020000000003</v>
       </c>
     </row>
@@ -20702,7 +21536,7 @@
         <v>210</v>
       </c>
       <c r="C402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1790.7452000000003</v>
       </c>
     </row>
@@ -20714,7 +21548,7 @@
         <v>192</v>
       </c>
       <c r="C403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1795.3884000000003</v>
       </c>
     </row>
@@ -20726,7 +21560,7 @@
         <v>187</v>
       </c>
       <c r="C404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1800.0316000000003</v>
       </c>
     </row>
@@ -20738,7 +21572,7 @@
         <v>189</v>
       </c>
       <c r="C405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1804.6748000000002</v>
       </c>
     </row>
@@ -20750,7 +21584,7 @@
         <v>199</v>
       </c>
       <c r="C406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1809.3180000000002</v>
       </c>
     </row>
@@ -20762,7 +21596,7 @@
         <v>169</v>
       </c>
       <c r="C407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1813.9612000000002</v>
       </c>
     </row>
@@ -20774,7 +21608,7 @@
         <v>183</v>
       </c>
       <c r="C408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1818.6044000000002</v>
       </c>
     </row>
@@ -20786,7 +21620,7 @@
         <v>193</v>
       </c>
       <c r="C409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1823.2476000000001</v>
       </c>
     </row>
@@ -20798,7 +21632,7 @@
         <v>183</v>
       </c>
       <c r="C410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1827.8908000000001</v>
       </c>
     </row>
@@ -20810,7 +21644,7 @@
         <v>187</v>
       </c>
       <c r="C411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1832.5340000000001</v>
       </c>
     </row>
@@ -20822,7 +21656,7 @@
         <v>183</v>
       </c>
       <c r="C412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1837.1772000000001</v>
       </c>
     </row>
@@ -20834,7 +21668,7 @@
         <v>178</v>
       </c>
       <c r="C413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1841.8204000000001</v>
       </c>
     </row>
@@ -20846,7 +21680,7 @@
         <v>184</v>
       </c>
       <c r="C414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1846.4636</v>
       </c>
     </row>
@@ -20858,7 +21692,7 @@
         <v>199</v>
       </c>
       <c r="C415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1851.1068</v>
       </c>
     </row>
@@ -20870,7 +21704,7 @@
         <v>174</v>
       </c>
       <c r="C416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1855.75</v>
       </c>
     </row>
@@ -20882,7 +21716,7 @@
         <v>182</v>
       </c>
       <c r="C417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1860.3932</v>
       </c>
     </row>
@@ -20894,7 +21728,7 @@
         <v>209</v>
       </c>
       <c r="C418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1865.0364</v>
       </c>
     </row>
@@ -20906,7 +21740,7 @@
         <v>195</v>
       </c>
       <c r="C419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1869.6795999999999</v>
       </c>
     </row>
@@ -20918,7 +21752,7 @@
         <v>185</v>
       </c>
       <c r="C420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1874.3227999999999</v>
       </c>
     </row>
@@ -20930,7 +21764,7 @@
         <v>201</v>
       </c>
       <c r="C421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1878.9659999999999</v>
       </c>
     </row>
@@ -20942,7 +21776,7 @@
         <v>194</v>
       </c>
       <c r="C422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1883.6091999999999</v>
       </c>
     </row>
@@ -20954,7 +21788,7 @@
         <v>182</v>
       </c>
       <c r="C423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1888.2524000000003</v>
       </c>
     </row>
@@ -20966,7 +21800,7 @@
         <v>174</v>
       </c>
       <c r="C424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1892.8956000000003</v>
       </c>
     </row>
@@ -20978,7 +21812,7 @@
         <v>185</v>
       </c>
       <c r="C425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1897.5388000000003</v>
       </c>
     </row>
@@ -20990,7 +21824,7 @@
         <v>173</v>
       </c>
       <c r="C426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1902.1820000000002</v>
       </c>
     </row>
@@ -21002,7 +21836,7 @@
         <v>175</v>
       </c>
       <c r="C427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1906.8252000000002</v>
       </c>
     </row>
@@ -21014,7 +21848,7 @@
         <v>189</v>
       </c>
       <c r="C428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1911.4684000000002</v>
       </c>
     </row>
@@ -21026,7 +21860,7 @@
         <v>177</v>
       </c>
       <c r="C429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1916.1116000000002</v>
       </c>
     </row>
@@ -21038,7 +21872,7 @@
         <v>186</v>
       </c>
       <c r="C430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1920.7548000000002</v>
       </c>
     </row>
@@ -21050,7 +21884,7 @@
         <v>159</v>
       </c>
       <c r="C431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1925.3980000000001</v>
       </c>
     </row>
@@ -21062,7 +21896,7 @@
         <v>178</v>
       </c>
       <c r="C432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1930.0412000000001</v>
       </c>
     </row>
@@ -21074,7 +21908,7 @@
         <v>181</v>
       </c>
       <c r="C433">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1934.6844000000001</v>
       </c>
     </row>
@@ -21086,7 +21920,7 @@
         <v>156</v>
       </c>
       <c r="C434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1939.3276000000001</v>
       </c>
     </row>
@@ -21098,7 +21932,7 @@
         <v>172</v>
       </c>
       <c r="C435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1943.9708000000001</v>
       </c>
     </row>
@@ -21110,7 +21944,7 @@
         <v>151</v>
       </c>
       <c r="C436">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1948.614</v>
       </c>
     </row>
@@ -21122,7 +21956,7 @@
         <v>171</v>
       </c>
       <c r="C437">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1953.2572</v>
       </c>
     </row>
@@ -21134,7 +21968,7 @@
         <v>146</v>
       </c>
       <c r="C438">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1957.9004</v>
       </c>
     </row>
@@ -21146,7 +21980,7 @@
         <v>177</v>
       </c>
       <c r="C439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1962.5436</v>
       </c>
     </row>
@@ -21158,7 +21992,7 @@
         <v>148</v>
       </c>
       <c r="C440">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1967.1867999999999</v>
       </c>
     </row>
@@ -21170,7 +22004,7 @@
         <v>122</v>
       </c>
       <c r="C441">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1971.83</v>
       </c>
     </row>
@@ -21182,7 +22016,7 @@
         <v>150</v>
       </c>
       <c r="C442">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1976.4731999999999</v>
       </c>
     </row>
@@ -21194,7 +22028,7 @@
         <v>148</v>
       </c>
       <c r="C443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1981.1164000000003</v>
       </c>
     </row>
@@ -21206,7 +22040,7 @@
         <v>145</v>
       </c>
       <c r="C444">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1985.7596000000003</v>
       </c>
     </row>
@@ -21218,7 +22052,7 @@
         <v>146</v>
       </c>
       <c r="C445">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1990.4028000000003</v>
       </c>
     </row>
@@ -21230,7 +22064,7 @@
         <v>151</v>
       </c>
       <c r="C446">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1995.0460000000003</v>
       </c>
     </row>
@@ -21242,7 +22076,7 @@
         <v>128</v>
       </c>
       <c r="C447">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1999.6892000000003</v>
       </c>
     </row>
@@ -21254,7 +22088,7 @@
         <v>127</v>
       </c>
       <c r="C448">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2004.3324000000002</v>
       </c>
     </row>
@@ -21266,7 +22100,7 @@
         <v>124</v>
       </c>
       <c r="C449">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2008.9756000000002</v>
       </c>
     </row>
@@ -21278,7 +22112,7 @@
         <v>157</v>
       </c>
       <c r="C450">
-        <f t="shared" ref="C450:C513" si="7">A450*$F$3+$F$2</f>
+        <f t="shared" ref="C450:C513" si="12">A450*$F$3+$F$2</f>
         <v>2013.6188000000002</v>
       </c>
     </row>
@@ -21290,7 +22124,7 @@
         <v>112</v>
       </c>
       <c r="C451">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2018.2620000000002</v>
       </c>
     </row>
@@ -21302,7 +22136,7 @@
         <v>120</v>
       </c>
       <c r="C452">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2022.9052000000001</v>
       </c>
     </row>
@@ -21314,7 +22148,7 @@
         <v>117</v>
       </c>
       <c r="C453">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2027.5484000000001</v>
       </c>
     </row>
@@ -21326,7 +22160,7 @@
         <v>125</v>
       </c>
       <c r="C454">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2032.1916000000001</v>
       </c>
     </row>
@@ -21338,7 +22172,7 @@
         <v>130</v>
       </c>
       <c r="C455">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2036.8348000000001</v>
       </c>
     </row>
@@ -21350,7 +22184,7 @@
         <v>113</v>
       </c>
       <c r="C456">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2041.4780000000001</v>
       </c>
     </row>
@@ -21362,7 +22196,7 @@
         <v>129</v>
       </c>
       <c r="C457">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2046.1212</v>
       </c>
     </row>
@@ -21374,7 +22208,7 @@
         <v>116</v>
       </c>
       <c r="C458">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2050.7644</v>
       </c>
     </row>
@@ -21386,7 +22220,7 @@
         <v>117</v>
       </c>
       <c r="C459">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2055.4076</v>
       </c>
     </row>
@@ -21398,7 +22232,7 @@
         <v>110</v>
       </c>
       <c r="C460">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2060.0508000000004</v>
       </c>
     </row>
@@ -21410,7 +22244,7 @@
         <v>134</v>
       </c>
       <c r="C461">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2064.6940000000004</v>
       </c>
     </row>
@@ -21422,7 +22256,7 @@
         <v>117</v>
       </c>
       <c r="C462">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2069.3372000000004</v>
       </c>
     </row>
@@ -21434,7 +22268,7 @@
         <v>115</v>
       </c>
       <c r="C463">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2073.9804000000004</v>
       </c>
     </row>
@@ -21446,7 +22280,7 @@
         <v>116</v>
       </c>
       <c r="C464">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2078.6236000000004</v>
       </c>
     </row>
@@ -21458,7 +22292,7 @@
         <v>117</v>
       </c>
       <c r="C465">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2083.2668000000003</v>
       </c>
     </row>
@@ -21470,7 +22304,7 @@
         <v>130</v>
       </c>
       <c r="C466">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2087.9100000000003</v>
       </c>
     </row>
@@ -21482,7 +22316,7 @@
         <v>103</v>
       </c>
       <c r="C467">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2092.5532000000003</v>
       </c>
     </row>
@@ -21494,7 +22328,7 @@
         <v>104</v>
       </c>
       <c r="C468">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2097.1964000000003</v>
       </c>
     </row>
@@ -21506,7 +22340,7 @@
         <v>116</v>
       </c>
       <c r="C469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2101.8396000000002</v>
       </c>
     </row>
@@ -21518,7 +22352,7 @@
         <v>105</v>
       </c>
       <c r="C470">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2106.4828000000002</v>
       </c>
     </row>
@@ -21530,7 +22364,7 @@
         <v>98</v>
       </c>
       <c r="C471">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2111.1260000000002</v>
       </c>
     </row>
@@ -21542,7 +22376,7 @@
         <v>126</v>
       </c>
       <c r="C472">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2115.7692000000002</v>
       </c>
     </row>
@@ -21554,7 +22388,7 @@
         <v>102</v>
       </c>
       <c r="C473">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2120.4124000000002</v>
       </c>
     </row>
@@ -21566,7 +22400,7 @@
         <v>116</v>
       </c>
       <c r="C474">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2125.0556000000001</v>
       </c>
     </row>
@@ -21578,7 +22412,7 @@
         <v>110</v>
       </c>
       <c r="C475">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2129.6988000000001</v>
       </c>
     </row>
@@ -21590,7 +22424,7 @@
         <v>119</v>
       </c>
       <c r="C476">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2134.3420000000001</v>
       </c>
     </row>
@@ -21602,7 +22436,7 @@
         <v>97</v>
       </c>
       <c r="C477">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2138.9852000000001</v>
       </c>
     </row>
@@ -21614,7 +22448,7 @@
         <v>114</v>
       </c>
       <c r="C478">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2143.6284000000001</v>
       </c>
     </row>
@@ -21626,7 +22460,7 @@
         <v>88</v>
       </c>
       <c r="C479">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2148.2716</v>
       </c>
     </row>
@@ -21638,7 +22472,7 @@
         <v>95</v>
       </c>
       <c r="C480">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2152.9148</v>
       </c>
     </row>
@@ -21650,7 +22484,7 @@
         <v>119</v>
       </c>
       <c r="C481">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2157.558</v>
       </c>
     </row>
@@ -21662,7 +22496,7 @@
         <v>92</v>
       </c>
       <c r="C482">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2162.2012000000004</v>
       </c>
     </row>
@@ -21674,7 +22508,7 @@
         <v>118</v>
       </c>
       <c r="C483">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2166.8444000000004</v>
       </c>
     </row>
@@ -21686,7 +22520,7 @@
         <v>93</v>
       </c>
       <c r="C484">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2171.4876000000004</v>
       </c>
     </row>
@@ -21698,7 +22532,7 @@
         <v>110</v>
       </c>
       <c r="C485">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2176.1308000000004</v>
       </c>
     </row>
@@ -21710,7 +22544,7 @@
         <v>99</v>
       </c>
       <c r="C486">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2180.7740000000003</v>
       </c>
     </row>
@@ -21722,7 +22556,7 @@
         <v>104</v>
       </c>
       <c r="C487">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2185.4172000000003</v>
       </c>
     </row>
@@ -21734,7 +22568,7 @@
         <v>86</v>
       </c>
       <c r="C488">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2190.0604000000003</v>
       </c>
     </row>
@@ -21746,7 +22580,7 @@
         <v>89</v>
       </c>
       <c r="C489">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2194.7036000000003</v>
       </c>
     </row>
@@ -21758,7 +22592,7 @@
         <v>100</v>
       </c>
       <c r="C490">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2199.3468000000003</v>
       </c>
     </row>
@@ -21770,7 +22604,7 @@
         <v>124</v>
       </c>
       <c r="C491">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2203.9900000000002</v>
       </c>
     </row>
@@ -21782,7 +22616,7 @@
         <v>75</v>
       </c>
       <c r="C492">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2208.6332000000002</v>
       </c>
     </row>
@@ -21794,7 +22628,7 @@
         <v>91</v>
       </c>
       <c r="C493">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2213.2764000000002</v>
       </c>
     </row>
@@ -21806,7 +22640,7 @@
         <v>97</v>
       </c>
       <c r="C494">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2217.9196000000002</v>
       </c>
     </row>
@@ -21818,7 +22652,7 @@
         <v>88</v>
       </c>
       <c r="C495">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2222.5628000000002</v>
       </c>
     </row>
@@ -21830,7 +22664,7 @@
         <v>90</v>
       </c>
       <c r="C496">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2227.2060000000001</v>
       </c>
     </row>
@@ -21842,7 +22676,7 @@
         <v>100</v>
       </c>
       <c r="C497">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2231.8492000000001</v>
       </c>
     </row>
@@ -21854,7 +22688,7 @@
         <v>88</v>
       </c>
       <c r="C498">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2236.4924000000001</v>
       </c>
     </row>
@@ -21866,7 +22700,7 @@
         <v>110</v>
       </c>
       <c r="C499">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2241.1356000000001</v>
       </c>
     </row>
@@ -21878,7 +22712,7 @@
         <v>101</v>
       </c>
       <c r="C500">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2245.7788</v>
       </c>
     </row>
@@ -21890,7 +22724,7 @@
         <v>95</v>
       </c>
       <c r="C501">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2250.422</v>
       </c>
     </row>
@@ -21902,7 +22736,7 @@
         <v>104</v>
       </c>
       <c r="C502">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2255.0652</v>
       </c>
     </row>
@@ -21914,7 +22748,7 @@
         <v>90</v>
       </c>
       <c r="C503">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2259.7084000000004</v>
       </c>
     </row>
@@ -21926,7 +22760,7 @@
         <v>101</v>
       </c>
       <c r="C504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2264.3516000000004</v>
       </c>
     </row>
@@ -21938,7 +22772,7 @@
         <v>87</v>
       </c>
       <c r="C505">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2268.9948000000004</v>
       </c>
     </row>
@@ -21950,7 +22784,7 @@
         <v>111</v>
       </c>
       <c r="C506">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2273.6380000000004</v>
       </c>
     </row>
@@ -21962,7 +22796,7 @@
         <v>92</v>
       </c>
       <c r="C507">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2278.2812000000004</v>
       </c>
     </row>
@@ -21974,7 +22808,7 @@
         <v>99</v>
       </c>
       <c r="C508">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2282.9244000000003</v>
       </c>
     </row>
@@ -21986,7 +22820,7 @@
         <v>95</v>
       </c>
       <c r="C509">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2287.5676000000003</v>
       </c>
     </row>
@@ -21998,7 +22832,7 @@
         <v>96</v>
       </c>
       <c r="C510">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2292.2108000000003</v>
       </c>
     </row>
@@ -22010,7 +22844,7 @@
         <v>96</v>
       </c>
       <c r="C511">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2296.8540000000003</v>
       </c>
     </row>
@@ -22022,7 +22856,7 @@
         <v>94</v>
       </c>
       <c r="C512">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2301.4972000000002</v>
       </c>
     </row>
@@ -22034,7 +22868,7 @@
         <v>97</v>
       </c>
       <c r="C513">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2306.1404000000002</v>
       </c>
     </row>
@@ -22046,7 +22880,7 @@
         <v>92</v>
       </c>
       <c r="C514">
-        <f t="shared" ref="C514:C577" si="8">A514*$F$3+$F$2</f>
+        <f t="shared" ref="C514:C577" si="13">A514*$F$3+$F$2</f>
         <v>2310.7836000000002</v>
       </c>
     </row>
@@ -22058,7 +22892,7 @@
         <v>82</v>
       </c>
       <c r="C515">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2315.4268000000002</v>
       </c>
     </row>
@@ -22070,7 +22904,7 @@
         <v>98</v>
       </c>
       <c r="C516">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2320.0700000000002</v>
       </c>
     </row>
@@ -22082,7 +22916,7 @@
         <v>110</v>
       </c>
       <c r="C517">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2324.7132000000001</v>
       </c>
     </row>
@@ -22094,7 +22928,7 @@
         <v>98</v>
       </c>
       <c r="C518">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2329.3564000000001</v>
       </c>
     </row>
@@ -22106,7 +22940,7 @@
         <v>112</v>
       </c>
       <c r="C519">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2333.9996000000001</v>
       </c>
     </row>
@@ -22118,7 +22952,7 @@
         <v>104</v>
       </c>
       <c r="C520">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2338.6428000000001</v>
       </c>
     </row>
@@ -22130,7 +22964,7 @@
         <v>105</v>
       </c>
       <c r="C521">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2343.2860000000001</v>
       </c>
     </row>
@@ -22142,7 +22976,7 @@
         <v>105</v>
       </c>
       <c r="C522">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2347.9292</v>
       </c>
     </row>
@@ -22154,7 +22988,7 @@
         <v>103</v>
       </c>
       <c r="C523">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2352.5724</v>
       </c>
     </row>
@@ -22166,7 +23000,7 @@
         <v>114</v>
       </c>
       <c r="C524">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2357.2156000000004</v>
       </c>
     </row>
@@ -22178,7 +23012,7 @@
         <v>124</v>
       </c>
       <c r="C525">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2361.8588000000004</v>
       </c>
     </row>
@@ -22190,7 +23024,7 @@
         <v>97</v>
       </c>
       <c r="C526">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2366.5020000000004</v>
       </c>
     </row>
@@ -22202,7 +23036,7 @@
         <v>114</v>
       </c>
       <c r="C527">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2371.1452000000004</v>
       </c>
     </row>
@@ -22214,7 +23048,7 @@
         <v>103</v>
       </c>
       <c r="C528">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2375.7884000000004</v>
       </c>
     </row>
@@ -22226,7 +23060,7 @@
         <v>117</v>
       </c>
       <c r="C529">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2380.4316000000003</v>
       </c>
     </row>
@@ -22238,7 +23072,7 @@
         <v>102</v>
       </c>
       <c r="C530">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2385.0748000000003</v>
       </c>
     </row>
@@ -22250,7 +23084,7 @@
         <v>111</v>
       </c>
       <c r="C531">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2389.7180000000003</v>
       </c>
     </row>
@@ -22262,7 +23096,7 @@
         <v>103</v>
       </c>
       <c r="C532">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2394.3612000000003</v>
       </c>
     </row>
@@ -22274,7 +23108,7 @@
         <v>107</v>
       </c>
       <c r="C533">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2399.0044000000003</v>
       </c>
     </row>
@@ -22286,7 +23120,7 @@
         <v>117</v>
       </c>
       <c r="C534">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2403.6476000000002</v>
       </c>
     </row>
@@ -22298,7 +23132,7 @@
         <v>114</v>
       </c>
       <c r="C535">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2408.2908000000002</v>
       </c>
     </row>
@@ -22310,7 +23144,7 @@
         <v>108</v>
       </c>
       <c r="C536">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2412.9340000000002</v>
       </c>
     </row>
@@ -22322,7 +23156,7 @@
         <v>134</v>
       </c>
       <c r="C537">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2417.5772000000002</v>
       </c>
     </row>
@@ -22334,7 +23168,7 @@
         <v>103</v>
       </c>
       <c r="C538">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2422.2204000000002</v>
       </c>
     </row>
@@ -22346,7 +23180,7 @@
         <v>111</v>
       </c>
       <c r="C539">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2426.8636000000001</v>
       </c>
     </row>
@@ -22358,7 +23192,7 @@
         <v>85</v>
       </c>
       <c r="C540">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2431.5068000000001</v>
       </c>
     </row>
@@ -22370,7 +23204,7 @@
         <v>96</v>
       </c>
       <c r="C541">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2436.15</v>
       </c>
     </row>
@@ -22382,7 +23216,7 @@
         <v>106</v>
       </c>
       <c r="C542">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2440.7932000000001</v>
       </c>
     </row>
@@ -22394,7 +23228,7 @@
         <v>92</v>
       </c>
       <c r="C543">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2445.4364</v>
       </c>
     </row>
@@ -22406,7 +23240,7 @@
         <v>98</v>
       </c>
       <c r="C544">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2450.0796</v>
       </c>
     </row>
@@ -22418,7 +23252,7 @@
         <v>86</v>
       </c>
       <c r="C545">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2454.7228000000005</v>
       </c>
     </row>
@@ -22430,7 +23264,7 @@
         <v>113</v>
       </c>
       <c r="C546">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2459.3660000000004</v>
       </c>
     </row>
@@ -22442,7 +23276,7 @@
         <v>98</v>
       </c>
       <c r="C547">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2464.0092000000004</v>
       </c>
     </row>
@@ -22454,7 +23288,7 @@
         <v>107</v>
       </c>
       <c r="C548">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2468.6524000000004</v>
       </c>
     </row>
@@ -22466,7 +23300,7 @@
         <v>73</v>
       </c>
       <c r="C549">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2473.2956000000004</v>
       </c>
     </row>
@@ -22478,7 +23312,7 @@
         <v>100</v>
       </c>
       <c r="C550">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2477.9388000000004</v>
       </c>
     </row>
@@ -22490,7 +23324,7 @@
         <v>85</v>
       </c>
       <c r="C551">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2482.5820000000003</v>
       </c>
     </row>
@@ -22502,7 +23336,7 @@
         <v>78</v>
       </c>
       <c r="C552">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2487.2252000000003</v>
       </c>
     </row>
@@ -22514,7 +23348,7 @@
         <v>67</v>
       </c>
       <c r="C553">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2491.8684000000003</v>
       </c>
     </row>
@@ -22526,7 +23360,7 @@
         <v>83</v>
       </c>
       <c r="C554">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2496.5116000000003</v>
       </c>
     </row>
@@ -22538,7 +23372,7 @@
         <v>83</v>
       </c>
       <c r="C555">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2501.1548000000003</v>
       </c>
     </row>
@@ -22550,7 +23384,7 @@
         <v>82</v>
       </c>
       <c r="C556">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2505.7980000000002</v>
       </c>
     </row>
@@ -22562,7 +23396,7 @@
         <v>79</v>
       </c>
       <c r="C557">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2510.4412000000002</v>
       </c>
     </row>
@@ -22574,7 +23408,7 @@
         <v>87</v>
       </c>
       <c r="C558">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2515.0844000000002</v>
       </c>
     </row>
@@ -22586,7 +23420,7 @@
         <v>62</v>
       </c>
       <c r="C559">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2519.7276000000002</v>
       </c>
     </row>
@@ -22598,7 +23432,7 @@
         <v>87</v>
       </c>
       <c r="C560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2524.3708000000001</v>
       </c>
     </row>
@@ -22610,7 +23444,7 @@
         <v>58</v>
       </c>
       <c r="C561">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2529.0140000000001</v>
       </c>
     </row>
@@ -22622,7 +23456,7 @@
         <v>74</v>
       </c>
       <c r="C562">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2533.6572000000001</v>
       </c>
     </row>
@@ -22634,7 +23468,7 @@
         <v>76</v>
       </c>
       <c r="C563">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2538.3004000000001</v>
       </c>
     </row>
@@ -22646,7 +23480,7 @@
         <v>79</v>
       </c>
       <c r="C564">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2542.9436000000001</v>
       </c>
     </row>
@@ -22658,7 +23492,7 @@
         <v>62</v>
       </c>
       <c r="C565">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2547.5868</v>
       </c>
     </row>
@@ -22670,7 +23504,7 @@
         <v>75</v>
       </c>
       <c r="C566">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2552.23</v>
       </c>
     </row>
@@ -22682,7 +23516,7 @@
         <v>75</v>
       </c>
       <c r="C567">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2556.8732000000005</v>
       </c>
     </row>
@@ -22694,7 +23528,7 @@
         <v>86</v>
       </c>
       <c r="C568">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2561.5164000000004</v>
       </c>
     </row>
@@ -22706,7 +23540,7 @@
         <v>72</v>
       </c>
       <c r="C569">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2566.1596000000004</v>
       </c>
     </row>
@@ -22718,7 +23552,7 @@
         <v>72</v>
       </c>
       <c r="C570">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2570.8028000000004</v>
       </c>
     </row>
@@ -22730,7 +23564,7 @@
         <v>71</v>
       </c>
       <c r="C571">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2575.4460000000004</v>
       </c>
     </row>
@@ -22742,7 +23576,7 @@
         <v>74</v>
       </c>
       <c r="C572">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2580.0892000000003</v>
       </c>
     </row>
@@ -22754,7 +23588,7 @@
         <v>75</v>
       </c>
       <c r="C573">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2584.7324000000003</v>
       </c>
     </row>
@@ -22766,7 +23600,7 @@
         <v>73</v>
       </c>
       <c r="C574">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2589.3756000000003</v>
       </c>
     </row>
@@ -22778,7 +23612,7 @@
         <v>80</v>
       </c>
       <c r="C575">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2594.0188000000003</v>
       </c>
     </row>
@@ -22790,7 +23624,7 @@
         <v>73</v>
       </c>
       <c r="C576">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2598.6620000000003</v>
       </c>
     </row>
@@ -22802,7 +23636,7 @@
         <v>77</v>
       </c>
       <c r="C577">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2603.3052000000002</v>
       </c>
     </row>
@@ -22814,7 +23648,7 @@
         <v>58</v>
       </c>
       <c r="C578">
-        <f t="shared" ref="C578:C641" si="9">A578*$F$3+$F$2</f>
+        <f t="shared" ref="C578:C641" si="14">A578*$F$3+$F$2</f>
         <v>2607.9484000000002</v>
       </c>
     </row>
@@ -22826,7 +23660,7 @@
         <v>63</v>
       </c>
       <c r="C579">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2612.5916000000002</v>
       </c>
     </row>
@@ -22838,7 +23672,7 @@
         <v>73</v>
       </c>
       <c r="C580">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2617.2348000000002</v>
       </c>
     </row>
@@ -22850,7 +23684,7 @@
         <v>59</v>
       </c>
       <c r="C581">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2621.8780000000002</v>
       </c>
     </row>
@@ -22862,7 +23696,7 @@
         <v>57</v>
       </c>
       <c r="C582">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2626.5212000000001</v>
       </c>
     </row>
@@ -22874,7 +23708,7 @@
         <v>73</v>
       </c>
       <c r="C583">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2631.1644000000001</v>
       </c>
     </row>
@@ -22886,7 +23720,7 @@
         <v>73</v>
       </c>
       <c r="C584">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2635.8076000000001</v>
       </c>
     </row>
@@ -22898,7 +23732,7 @@
         <v>71</v>
       </c>
       <c r="C585">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2640.4508000000001</v>
       </c>
     </row>
@@ -22910,7 +23744,7 @@
         <v>68</v>
       </c>
       <c r="C586">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2645.0940000000001</v>
       </c>
     </row>
@@ -22922,7 +23756,7 @@
         <v>64</v>
       </c>
       <c r="C587">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2649.7372</v>
       </c>
     </row>
@@ -22934,7 +23768,7 @@
         <v>76</v>
       </c>
       <c r="C588">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2654.3804000000005</v>
       </c>
     </row>
@@ -22946,7 +23780,7 @@
         <v>93</v>
       </c>
       <c r="C589">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2659.0236000000004</v>
       </c>
     </row>
@@ -22958,7 +23792,7 @@
         <v>66</v>
       </c>
       <c r="C590">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2663.6668000000004</v>
       </c>
     </row>
@@ -22970,7 +23804,7 @@
         <v>70</v>
       </c>
       <c r="C591">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2668.3100000000004</v>
       </c>
     </row>
@@ -22982,7 +23816,7 @@
         <v>70</v>
       </c>
       <c r="C592">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2672.9532000000004</v>
       </c>
     </row>
@@ -22994,7 +23828,7 @@
         <v>57</v>
       </c>
       <c r="C593">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2677.5964000000004</v>
       </c>
     </row>
@@ -23006,7 +23840,7 @@
         <v>56</v>
       </c>
       <c r="C594">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2682.2396000000003</v>
       </c>
     </row>
@@ -23018,7 +23852,7 @@
         <v>78</v>
       </c>
       <c r="C595">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2686.8828000000003</v>
       </c>
     </row>
@@ -23030,7 +23864,7 @@
         <v>67</v>
       </c>
       <c r="C596">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2691.5260000000003</v>
       </c>
     </row>
@@ -23042,7 +23876,7 @@
         <v>57</v>
       </c>
       <c r="C597">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2696.1692000000003</v>
       </c>
     </row>
@@ -23054,7 +23888,7 @@
         <v>81</v>
       </c>
       <c r="C598">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2700.8124000000003</v>
       </c>
     </row>
@@ -23066,7 +23900,7 @@
         <v>73</v>
       </c>
       <c r="C599">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2705.4556000000002</v>
       </c>
     </row>
@@ -23078,7 +23912,7 @@
         <v>76</v>
       </c>
       <c r="C600">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2710.0988000000002</v>
       </c>
     </row>
@@ -23090,7 +23924,7 @@
         <v>74</v>
       </c>
       <c r="C601">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2714.7420000000002</v>
       </c>
     </row>
@@ -23102,7 +23936,7 @@
         <v>65</v>
       </c>
       <c r="C602">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2719.3852000000002</v>
       </c>
     </row>
@@ -23114,7 +23948,7 @@
         <v>59</v>
       </c>
       <c r="C603">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2724.0284000000001</v>
       </c>
     </row>
@@ -23126,7 +23960,7 @@
         <v>62</v>
       </c>
       <c r="C604">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2728.6716000000001</v>
       </c>
     </row>
@@ -23138,7 +23972,7 @@
         <v>70</v>
       </c>
       <c r="C605">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2733.3148000000001</v>
       </c>
     </row>
@@ -23150,7 +23984,7 @@
         <v>71</v>
       </c>
       <c r="C606">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2737.9580000000001</v>
       </c>
     </row>
@@ -23162,7 +23996,7 @@
         <v>56</v>
       </c>
       <c r="C607">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2742.6012000000001</v>
       </c>
     </row>
@@ -23174,7 +24008,7 @@
         <v>69</v>
       </c>
       <c r="C608">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2747.2444</v>
       </c>
     </row>
@@ -23186,7 +24020,7 @@
         <v>88</v>
       </c>
       <c r="C609">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2751.8876</v>
       </c>
     </row>
@@ -23198,7 +24032,7 @@
         <v>63</v>
       </c>
       <c r="C610">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2756.5308000000005</v>
       </c>
     </row>
@@ -23210,7 +24044,7 @@
         <v>70</v>
       </c>
       <c r="C611">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2761.1740000000004</v>
       </c>
     </row>
@@ -23222,7 +24056,7 @@
         <v>62</v>
       </c>
       <c r="C612">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2765.8172000000004</v>
       </c>
     </row>
@@ -23234,7 +24068,7 @@
         <v>86</v>
       </c>
       <c r="C613">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2770.4604000000004</v>
       </c>
     </row>
@@ -23246,7 +24080,7 @@
         <v>73</v>
       </c>
       <c r="C614">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2775.1036000000004</v>
       </c>
     </row>
@@ -23258,7 +24092,7 @@
         <v>73</v>
       </c>
       <c r="C615">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2779.7468000000003</v>
       </c>
     </row>
@@ -23270,7 +24104,7 @@
         <v>70</v>
       </c>
       <c r="C616">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2784.3900000000003</v>
       </c>
     </row>
@@ -23282,7 +24116,7 @@
         <v>80</v>
       </c>
       <c r="C617">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2789.0332000000003</v>
       </c>
     </row>
@@ -23294,7 +24128,7 @@
         <v>89</v>
       </c>
       <c r="C618">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2793.6764000000003</v>
       </c>
     </row>
@@ -23306,7 +24140,7 @@
         <v>83</v>
       </c>
       <c r="C619">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2798.3196000000003</v>
       </c>
     </row>
@@ -23318,7 +24152,7 @@
         <v>69</v>
       </c>
       <c r="C620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2802.9628000000002</v>
       </c>
     </row>
@@ -23330,7 +24164,7 @@
         <v>88</v>
       </c>
       <c r="C621">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2807.6060000000002</v>
       </c>
     </row>
@@ -23342,7 +24176,7 @@
         <v>77</v>
       </c>
       <c r="C622">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2812.2492000000002</v>
       </c>
     </row>
@@ -23354,7 +24188,7 @@
         <v>69</v>
       </c>
       <c r="C623">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2816.8924000000002</v>
       </c>
     </row>
@@ -23366,7 +24200,7 @@
         <v>71</v>
       </c>
       <c r="C624">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2821.5356000000002</v>
       </c>
     </row>
@@ -23378,7 +24212,7 @@
         <v>82</v>
       </c>
       <c r="C625">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2826.1788000000001</v>
       </c>
     </row>
@@ -23390,7 +24224,7 @@
         <v>83</v>
       </c>
       <c r="C626">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2830.8220000000001</v>
       </c>
     </row>
@@ -23402,7 +24236,7 @@
         <v>80</v>
       </c>
       <c r="C627">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2835.4652000000001</v>
       </c>
     </row>
@@ -23414,7 +24248,7 @@
         <v>81</v>
       </c>
       <c r="C628">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2840.1084000000001</v>
       </c>
     </row>
@@ -23426,7 +24260,7 @@
         <v>81</v>
       </c>
       <c r="C629">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2844.7516000000001</v>
       </c>
     </row>
@@ -23438,7 +24272,7 @@
         <v>66</v>
       </c>
       <c r="C630">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2849.3948</v>
       </c>
     </row>
@@ -23450,7 +24284,7 @@
         <v>70</v>
       </c>
       <c r="C631">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2854.0380000000005</v>
       </c>
     </row>
@@ -23462,7 +24296,7 @@
         <v>68</v>
       </c>
       <c r="C632">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2858.6812000000004</v>
       </c>
     </row>
@@ -23474,7 +24308,7 @@
         <v>68</v>
       </c>
       <c r="C633">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2863.3244000000004</v>
       </c>
     </row>
@@ -23486,7 +24320,7 @@
         <v>72</v>
       </c>
       <c r="C634">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2867.9676000000004</v>
       </c>
     </row>
@@ -23498,7 +24332,7 @@
         <v>79</v>
       </c>
       <c r="C635">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2872.6108000000004</v>
       </c>
     </row>
@@ -23510,7 +24344,7 @@
         <v>58</v>
       </c>
       <c r="C636">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2877.2540000000004</v>
       </c>
     </row>
@@ -23522,7 +24356,7 @@
         <v>59</v>
       </c>
       <c r="C637">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2881.8972000000003</v>
       </c>
     </row>
@@ -23534,7 +24368,7 @@
         <v>70</v>
       </c>
       <c r="C638">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2886.5404000000003</v>
       </c>
     </row>
@@ -23546,7 +24380,7 @@
         <v>69</v>
       </c>
       <c r="C639">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2891.1836000000003</v>
       </c>
     </row>
@@ -23558,7 +24392,7 @@
         <v>59</v>
       </c>
       <c r="C640">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2895.8268000000003</v>
       </c>
     </row>
@@ -23570,7 +24404,7 @@
         <v>53</v>
       </c>
       <c r="C641">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2900.4700000000003</v>
       </c>
     </row>
@@ -23582,7 +24416,7 @@
         <v>75</v>
       </c>
       <c r="C642">
-        <f t="shared" ref="C642:C705" si="10">A642*$F$3+$F$2</f>
+        <f t="shared" ref="C642:C705" si="15">A642*$F$3+$F$2</f>
         <v>2905.1132000000002</v>
       </c>
     </row>
@@ -23594,7 +24428,7 @@
         <v>58</v>
       </c>
       <c r="C643">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2909.7564000000002</v>
       </c>
     </row>
@@ -23606,7 +24440,7 @@
         <v>58</v>
       </c>
       <c r="C644">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2914.3996000000002</v>
       </c>
     </row>
@@ -23618,7 +24452,7 @@
         <v>60</v>
       </c>
       <c r="C645">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2919.0428000000002</v>
       </c>
     </row>
@@ -23630,7 +24464,7 @@
         <v>73</v>
       </c>
       <c r="C646">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2923.6860000000001</v>
       </c>
     </row>
@@ -23642,7 +24476,7 @@
         <v>74</v>
       </c>
       <c r="C647">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2928.3292000000001</v>
       </c>
     </row>
@@ -23654,7 +24488,7 @@
         <v>55</v>
       </c>
       <c r="C648">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2932.9724000000001</v>
       </c>
     </row>
@@ -23666,7 +24500,7 @@
         <v>61</v>
       </c>
       <c r="C649">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2937.6156000000001</v>
       </c>
     </row>
@@ -23678,7 +24512,7 @@
         <v>50</v>
       </c>
       <c r="C650">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2942.2588000000001</v>
       </c>
     </row>
@@ -23690,7 +24524,7 @@
         <v>59</v>
       </c>
       <c r="C651">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2946.902</v>
       </c>
     </row>
@@ -23702,7 +24536,7 @@
         <v>60</v>
       </c>
       <c r="C652">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2951.5452000000005</v>
       </c>
     </row>
@@ -23714,7 +24548,7 @@
         <v>75</v>
       </c>
       <c r="C653">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2956.1884000000005</v>
       </c>
     </row>
@@ -23726,7 +24560,7 @@
         <v>59</v>
       </c>
       <c r="C654">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2960.8316000000004</v>
       </c>
     </row>
@@ -23738,7 +24572,7 @@
         <v>52</v>
       </c>
       <c r="C655">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2965.4748000000004</v>
       </c>
     </row>
@@ -23750,7 +24584,7 @@
         <v>66</v>
       </c>
       <c r="C656">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2970.1180000000004</v>
       </c>
     </row>
@@ -23762,7 +24596,7 @@
         <v>54</v>
       </c>
       <c r="C657">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2974.7612000000004</v>
       </c>
     </row>
@@ -23774,7 +24608,7 @@
         <v>58</v>
       </c>
       <c r="C658">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2979.4044000000004</v>
       </c>
     </row>
@@ -23786,7 +24620,7 @@
         <v>72</v>
       </c>
       <c r="C659">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2984.0476000000003</v>
       </c>
     </row>
@@ -23798,7 +24632,7 @@
         <v>50</v>
       </c>
       <c r="C660">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2988.6908000000003</v>
       </c>
     </row>
@@ -23810,7 +24644,7 @@
         <v>55</v>
       </c>
       <c r="C661">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2993.3340000000003</v>
       </c>
     </row>
@@ -23822,7 +24656,7 @@
         <v>64</v>
       </c>
       <c r="C662">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2997.9772000000003</v>
       </c>
     </row>
@@ -23834,7 +24668,7 @@
         <v>57</v>
       </c>
       <c r="C663">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3002.6204000000002</v>
       </c>
     </row>
@@ -23846,7 +24680,7 @@
         <v>67</v>
       </c>
       <c r="C664">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3007.2636000000002</v>
       </c>
     </row>
@@ -23858,7 +24692,7 @@
         <v>65</v>
       </c>
       <c r="C665">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3011.9068000000002</v>
       </c>
     </row>
@@ -23870,7 +24704,7 @@
         <v>64</v>
       </c>
       <c r="C666">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3016.55</v>
       </c>
     </row>
@@ -23882,7 +24716,7 @@
         <v>63</v>
       </c>
       <c r="C667">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3021.1932000000002</v>
       </c>
     </row>
@@ -23894,7 +24728,7 @@
         <v>56</v>
       </c>
       <c r="C668">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3025.8364000000001</v>
       </c>
     </row>
@@ -23906,7 +24740,7 @@
         <v>64</v>
       </c>
       <c r="C669">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3030.4796000000001</v>
       </c>
     </row>
@@ -23918,7 +24752,7 @@
         <v>64</v>
       </c>
       <c r="C670">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3035.1228000000001</v>
       </c>
     </row>
@@ -23930,7 +24764,7 @@
         <v>47</v>
       </c>
       <c r="C671">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3039.7660000000001</v>
       </c>
     </row>
@@ -23942,7 +24776,7 @@
         <v>62</v>
       </c>
       <c r="C672">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3044.4092000000001</v>
       </c>
     </row>
@@ -23954,7 +24788,7 @@
         <v>55</v>
       </c>
       <c r="C673">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3049.0524000000005</v>
       </c>
     </row>
@@ -23966,7 +24800,7 @@
         <v>55</v>
       </c>
       <c r="C674">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3053.6956000000005</v>
       </c>
     </row>
@@ -23978,7 +24812,7 @@
         <v>77</v>
       </c>
       <c r="C675">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3058.3388000000004</v>
       </c>
     </row>
@@ -23990,7 +24824,7 @@
         <v>50</v>
       </c>
       <c r="C676">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3062.9820000000004</v>
       </c>
     </row>
@@ -24002,7 +24836,7 @@
         <v>48</v>
       </c>
       <c r="C677">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3067.6252000000004</v>
       </c>
     </row>
@@ -24014,7 +24848,7 @@
         <v>73</v>
       </c>
       <c r="C678">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3072.2684000000004</v>
       </c>
     </row>
@@ -24026,7 +24860,7 @@
         <v>61</v>
       </c>
       <c r="C679">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3076.9116000000004</v>
       </c>
     </row>
@@ -24038,7 +24872,7 @@
         <v>62</v>
       </c>
       <c r="C680">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3081.5548000000003</v>
       </c>
     </row>
@@ -24050,7 +24884,7 @@
         <v>60</v>
       </c>
       <c r="C681">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3086.1980000000003</v>
       </c>
     </row>
@@ -24062,7 +24896,7 @@
         <v>40</v>
       </c>
       <c r="C682">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3090.8412000000003</v>
       </c>
     </row>
@@ -24074,7 +24908,7 @@
         <v>40</v>
       </c>
       <c r="C683">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3095.4844000000003</v>
       </c>
     </row>
@@ -24086,7 +24920,7 @@
         <v>55</v>
       </c>
       <c r="C684">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3100.1276000000003</v>
       </c>
     </row>
@@ -24098,7 +24932,7 @@
         <v>48</v>
       </c>
       <c r="C685">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3104.7708000000002</v>
       </c>
     </row>
@@ -24110,7 +24944,7 @@
         <v>73</v>
       </c>
       <c r="C686">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3109.4140000000002</v>
       </c>
     </row>
@@ -24122,7 +24956,7 @@
         <v>54</v>
       </c>
       <c r="C687">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3114.0572000000002</v>
       </c>
     </row>
@@ -24134,7 +24968,7 @@
         <v>43</v>
       </c>
       <c r="C688">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3118.7004000000002</v>
       </c>
     </row>
@@ -24146,7 +24980,7 @@
         <v>41</v>
       </c>
       <c r="C689">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3123.3436000000002</v>
       </c>
     </row>
@@ -24158,7 +24992,7 @@
         <v>46</v>
       </c>
       <c r="C690">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3127.9868000000001</v>
       </c>
     </row>
@@ -24170,7 +25004,7 @@
         <v>53</v>
       </c>
       <c r="C691">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3132.63</v>
       </c>
     </row>
@@ -24182,7 +25016,7 @@
         <v>52</v>
       </c>
       <c r="C692">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3137.2732000000001</v>
       </c>
     </row>
@@ -24194,7 +25028,7 @@
         <v>53</v>
       </c>
       <c r="C693">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3141.9164000000001</v>
       </c>
     </row>
@@ -24206,7 +25040,7 @@
         <v>61</v>
       </c>
       <c r="C694">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3146.5596</v>
       </c>
     </row>
@@ -24218,7 +25052,7 @@
         <v>52</v>
       </c>
       <c r="C695">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3151.2028000000005</v>
       </c>
     </row>
@@ -24230,7 +25064,7 @@
         <v>50</v>
       </c>
       <c r="C696">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3155.8460000000005</v>
       </c>
     </row>
@@ -24242,7 +25076,7 @@
         <v>63</v>
       </c>
       <c r="C697">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3160.4892000000004</v>
       </c>
     </row>
@@ -24254,7 +25088,7 @@
         <v>55</v>
       </c>
       <c r="C698">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3165.1324000000004</v>
       </c>
     </row>
@@ -24266,7 +25100,7 @@
         <v>46</v>
       </c>
       <c r="C699">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3169.7756000000004</v>
       </c>
     </row>
@@ -24278,7 +25112,7 @@
         <v>59</v>
       </c>
       <c r="C700">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3174.4188000000004</v>
       </c>
     </row>
@@ -24290,7 +25124,7 @@
         <v>46</v>
       </c>
       <c r="C701">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3179.0620000000004</v>
       </c>
     </row>
@@ -24302,7 +25136,7 @@
         <v>61</v>
       </c>
       <c r="C702">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3183.7052000000003</v>
       </c>
     </row>
@@ -24314,7 +25148,7 @@
         <v>59</v>
       </c>
       <c r="C703">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3188.3484000000003</v>
       </c>
     </row>
@@ -24326,7 +25160,7 @@
         <v>53</v>
       </c>
       <c r="C704">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3192.9916000000003</v>
       </c>
     </row>
@@ -24338,7 +25172,7 @@
         <v>40</v>
       </c>
       <c r="C705">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3197.6348000000003</v>
       </c>
     </row>
@@ -24350,7 +25184,7 @@
         <v>55</v>
       </c>
       <c r="C706">
-        <f t="shared" ref="C706:C769" si="11">A706*$F$3+$F$2</f>
+        <f t="shared" ref="C706:C769" si="16">A706*$F$3+$F$2</f>
         <v>3202.2780000000002</v>
       </c>
     </row>
@@ -24362,7 +25196,7 @@
         <v>50</v>
       </c>
       <c r="C707">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3206.9212000000002</v>
       </c>
     </row>
@@ -24374,7 +25208,7 @@
         <v>48</v>
       </c>
       <c r="C708">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3211.5644000000002</v>
       </c>
     </row>
@@ -24386,7 +25220,7 @@
         <v>53</v>
       </c>
       <c r="C709">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3216.2076000000002</v>
       </c>
     </row>
@@ -24398,7 +25232,7 @@
         <v>37</v>
       </c>
       <c r="C710">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3220.8508000000002</v>
       </c>
     </row>
@@ -24410,7 +25244,7 @@
         <v>57</v>
       </c>
       <c r="C711">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3225.4940000000001</v>
       </c>
     </row>
@@ -24422,7 +25256,7 @@
         <v>52</v>
       </c>
       <c r="C712">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3230.1372000000001</v>
       </c>
     </row>
@@ -24434,7 +25268,7 @@
         <v>48</v>
       </c>
       <c r="C713">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3234.7804000000001</v>
       </c>
     </row>
@@ -24446,7 +25280,7 @@
         <v>43</v>
       </c>
       <c r="C714">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3239.4236000000001</v>
       </c>
     </row>
@@ -24458,7 +25292,7 @@
         <v>53</v>
       </c>
       <c r="C715">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3244.0668000000001</v>
       </c>
     </row>
@@ -24470,7 +25304,7 @@
         <v>58</v>
       </c>
       <c r="C716">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3248.7100000000005</v>
       </c>
     </row>
@@ -24482,7 +25316,7 @@
         <v>56</v>
       </c>
       <c r="C717">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3253.3532000000005</v>
       </c>
     </row>
@@ -24494,7 +25328,7 @@
         <v>40</v>
       </c>
       <c r="C718">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3257.9964000000004</v>
       </c>
     </row>
@@ -24506,7 +25340,7 @@
         <v>48</v>
       </c>
       <c r="C719">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3262.6396000000004</v>
       </c>
     </row>
@@ -24518,7 +25352,7 @@
         <v>55</v>
       </c>
       <c r="C720">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3267.2828000000004</v>
       </c>
     </row>
@@ -24530,7 +25364,7 @@
         <v>57</v>
       </c>
       <c r="C721">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3271.9260000000004</v>
       </c>
     </row>
@@ -24542,7 +25376,7 @@
         <v>55</v>
       </c>
       <c r="C722">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3276.5692000000004</v>
       </c>
     </row>
@@ -24554,7 +25388,7 @@
         <v>46</v>
       </c>
       <c r="C723">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3281.2124000000003</v>
       </c>
     </row>
@@ -24566,7 +25400,7 @@
         <v>53</v>
       </c>
       <c r="C724">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3285.8556000000003</v>
       </c>
     </row>
@@ -24578,7 +25412,7 @@
         <v>58</v>
       </c>
       <c r="C725">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3290.4988000000003</v>
       </c>
     </row>
@@ -24590,7 +25424,7 @@
         <v>53</v>
       </c>
       <c r="C726">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3295.1420000000003</v>
       </c>
     </row>
@@ -24602,7 +25436,7 @@
         <v>51</v>
       </c>
       <c r="C727">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3299.7852000000003</v>
       </c>
     </row>
@@ -24614,7 +25448,7 @@
         <v>67</v>
       </c>
       <c r="C728">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3304.4284000000002</v>
       </c>
     </row>
@@ -24626,7 +25460,7 @@
         <v>48</v>
       </c>
       <c r="C729">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3309.0716000000002</v>
       </c>
     </row>
@@ -24638,7 +25472,7 @@
         <v>52</v>
       </c>
       <c r="C730">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3313.7148000000002</v>
       </c>
     </row>
@@ -24650,7 +25484,7 @@
         <v>62</v>
       </c>
       <c r="C731">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3318.3580000000002</v>
       </c>
     </row>
@@ -24662,7 +25496,7 @@
         <v>48</v>
       </c>
       <c r="C732">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3323.0012000000002</v>
       </c>
     </row>
@@ -24674,7 +25508,7 @@
         <v>52</v>
       </c>
       <c r="C733">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3327.6444000000001</v>
       </c>
     </row>
@@ -24686,7 +25520,7 @@
         <v>49</v>
       </c>
       <c r="C734">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3332.2876000000001</v>
       </c>
     </row>
@@ -24698,7 +25532,7 @@
         <v>52</v>
       </c>
       <c r="C735">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3336.9308000000001</v>
       </c>
     </row>
@@ -24710,7 +25544,7 @@
         <v>63</v>
       </c>
       <c r="C736">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3341.5740000000001</v>
       </c>
     </row>
@@ -24722,7 +25556,7 @@
         <v>54</v>
       </c>
       <c r="C737">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3346.2172</v>
       </c>
     </row>
@@ -24734,7 +25568,7 @@
         <v>43</v>
       </c>
       <c r="C738">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3350.8604000000005</v>
       </c>
     </row>
@@ -24746,7 +25580,7 @@
         <v>50</v>
       </c>
       <c r="C739">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3355.5036000000005</v>
       </c>
     </row>
@@ -24758,7 +25592,7 @@
         <v>47</v>
       </c>
       <c r="C740">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3360.1468000000004</v>
       </c>
     </row>
@@ -24770,7 +25604,7 @@
         <v>40</v>
       </c>
       <c r="C741">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3364.7900000000004</v>
       </c>
     </row>
@@ -24782,7 +25616,7 @@
         <v>69</v>
       </c>
       <c r="C742">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3369.4332000000004</v>
       </c>
     </row>
@@ -24794,7 +25628,7 @@
         <v>53</v>
       </c>
       <c r="C743">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3374.0764000000004</v>
       </c>
     </row>
@@ -24806,7 +25640,7 @@
         <v>39</v>
       </c>
       <c r="C744">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3378.7196000000004</v>
       </c>
     </row>
@@ -24818,7 +25652,7 @@
         <v>51</v>
       </c>
       <c r="C745">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3383.3628000000003</v>
       </c>
     </row>
@@ -24830,7 +25664,7 @@
         <v>53</v>
       </c>
       <c r="C746">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3388.0060000000003</v>
       </c>
     </row>
@@ -24842,7 +25676,7 @@
         <v>52</v>
       </c>
       <c r="C747">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3392.6492000000003</v>
       </c>
     </row>
@@ -24854,7 +25688,7 @@
         <v>60</v>
       </c>
       <c r="C748">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3397.2924000000003</v>
       </c>
     </row>
@@ -24866,7 +25700,7 @@
         <v>42</v>
       </c>
       <c r="C749">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3401.9356000000002</v>
       </c>
     </row>
@@ -24878,7 +25712,7 @@
         <v>46</v>
       </c>
       <c r="C750">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3406.5788000000002</v>
       </c>
     </row>
@@ -24890,7 +25724,7 @@
         <v>45</v>
       </c>
       <c r="C751">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3411.2220000000002</v>
       </c>
     </row>
@@ -24902,7 +25736,7 @@
         <v>43</v>
       </c>
       <c r="C752">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3415.8652000000002</v>
       </c>
     </row>
@@ -24914,7 +25748,7 @@
         <v>51</v>
       </c>
       <c r="C753">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3420.5084000000002</v>
       </c>
     </row>
@@ -24926,7 +25760,7 @@
         <v>42</v>
       </c>
       <c r="C754">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3425.1516000000001</v>
       </c>
     </row>
@@ -24938,7 +25772,7 @@
         <v>53</v>
       </c>
       <c r="C755">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3429.7948000000001</v>
       </c>
     </row>
@@ -24950,7 +25784,7 @@
         <v>55</v>
       </c>
       <c r="C756">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3434.4380000000001</v>
       </c>
     </row>
@@ -24962,7 +25796,7 @@
         <v>49</v>
       </c>
       <c r="C757">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3439.0812000000001</v>
       </c>
     </row>
@@ -24974,7 +25808,7 @@
         <v>47</v>
       </c>
       <c r="C758">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3443.7244000000001</v>
       </c>
     </row>
@@ -24986,7 +25820,7 @@
         <v>40</v>
       </c>
       <c r="C759">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3448.3676000000005</v>
       </c>
     </row>
@@ -24998,7 +25832,7 @@
         <v>41</v>
       </c>
       <c r="C760">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3453.0108000000005</v>
       </c>
     </row>
@@ -25010,7 +25844,7 @@
         <v>46</v>
       </c>
       <c r="C761">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3457.6540000000005</v>
       </c>
     </row>
@@ -25022,7 +25856,7 @@
         <v>41</v>
       </c>
       <c r="C762">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3462.2972000000004</v>
       </c>
     </row>
@@ -25034,7 +25868,7 @@
         <v>53</v>
       </c>
       <c r="C763">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3466.9404000000004</v>
       </c>
     </row>
@@ -25046,7 +25880,7 @@
         <v>47</v>
       </c>
       <c r="C764">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3471.5836000000004</v>
       </c>
     </row>
@@ -25058,7 +25892,7 @@
         <v>50</v>
       </c>
       <c r="C765">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3476.2268000000004</v>
       </c>
     </row>
@@ -25070,7 +25904,7 @@
         <v>41</v>
       </c>
       <c r="C766">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3480.8700000000003</v>
       </c>
     </row>
@@ -25082,7 +25916,7 @@
         <v>45</v>
       </c>
       <c r="C767">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3485.5132000000003</v>
       </c>
     </row>
@@ -25094,7 +25928,7 @@
         <v>42</v>
       </c>
       <c r="C768">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3490.1564000000003</v>
       </c>
     </row>
@@ -25106,7 +25940,7 @@
         <v>40</v>
       </c>
       <c r="C769">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3494.7996000000003</v>
       </c>
     </row>
@@ -25118,7 +25952,7 @@
         <v>54</v>
       </c>
       <c r="C770">
-        <f t="shared" ref="C770:C833" si="12">A770*$F$3+$F$2</f>
+        <f t="shared" ref="C770:C833" si="17">A770*$F$3+$F$2</f>
         <v>3499.4428000000003</v>
       </c>
     </row>
@@ -25130,7 +25964,7 @@
         <v>36</v>
       </c>
       <c r="C771">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3504.0860000000002</v>
       </c>
     </row>
@@ -25142,7 +25976,7 @@
         <v>37</v>
       </c>
       <c r="C772">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3508.7292000000002</v>
       </c>
     </row>
@@ -25154,7 +25988,7 @@
         <v>50</v>
       </c>
       <c r="C773">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3513.3724000000002</v>
       </c>
     </row>
@@ -25166,7 +26000,7 @@
         <v>59</v>
       </c>
       <c r="C774">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3518.0156000000002</v>
       </c>
     </row>
@@ -25178,7 +26012,7 @@
         <v>39</v>
       </c>
       <c r="C775">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3522.6588000000002</v>
       </c>
     </row>
@@ -25190,7 +26024,7 @@
         <v>48</v>
       </c>
       <c r="C776">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3527.3020000000001</v>
       </c>
     </row>
@@ -25202,7 +26036,7 @@
         <v>53</v>
       </c>
       <c r="C777">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3531.9452000000001</v>
       </c>
     </row>
@@ -25214,7 +26048,7 @@
         <v>47</v>
       </c>
       <c r="C778">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3536.5884000000001</v>
       </c>
     </row>
@@ -25226,7 +26060,7 @@
         <v>50</v>
       </c>
       <c r="C779">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3541.2316000000001</v>
       </c>
     </row>
@@ -25238,7 +26072,7 @@
         <v>52</v>
       </c>
       <c r="C780">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3545.8748000000005</v>
       </c>
     </row>
@@ -25250,7 +26084,7 @@
         <v>47</v>
       </c>
       <c r="C781">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3550.5180000000005</v>
       </c>
     </row>
@@ -25262,7 +26096,7 @@
         <v>49</v>
       </c>
       <c r="C782">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3555.1612000000005</v>
       </c>
     </row>
@@ -25274,7 +26108,7 @@
         <v>44</v>
       </c>
       <c r="C783">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3559.8044000000004</v>
       </c>
     </row>
@@ -25286,7 +26120,7 @@
         <v>42</v>
       </c>
       <c r="C784">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3564.4476000000004</v>
       </c>
     </row>
@@ -25298,7 +26132,7 @@
         <v>56</v>
       </c>
       <c r="C785">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3569.0908000000004</v>
       </c>
     </row>
@@ -25310,7 +26144,7 @@
         <v>45</v>
       </c>
       <c r="C786">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3573.7340000000004</v>
       </c>
     </row>
@@ -25322,7 +26156,7 @@
         <v>48</v>
       </c>
       <c r="C787">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3578.3772000000004</v>
       </c>
     </row>
@@ -25334,7 +26168,7 @@
         <v>48</v>
       </c>
       <c r="C788">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3583.0204000000003</v>
       </c>
     </row>
@@ -25346,7 +26180,7 @@
         <v>53</v>
       </c>
       <c r="C789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3587.6636000000003</v>
       </c>
     </row>
@@ -25358,7 +26192,7 @@
         <v>48</v>
       </c>
       <c r="C790">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3592.3068000000003</v>
       </c>
     </row>
@@ -25370,7 +26204,7 @@
         <v>50</v>
       </c>
       <c r="C791">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3596.9500000000003</v>
       </c>
     </row>
@@ -25382,7 +26216,7 @@
         <v>51</v>
       </c>
       <c r="C792">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3601.5932000000003</v>
       </c>
     </row>
@@ -25394,7 +26228,7 @@
         <v>47</v>
       </c>
       <c r="C793">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3606.2364000000002</v>
       </c>
     </row>
@@ -25406,7 +26240,7 @@
         <v>51</v>
       </c>
       <c r="C794">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3610.8796000000002</v>
       </c>
     </row>
@@ -25418,7 +26252,7 @@
         <v>52</v>
       </c>
       <c r="C795">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3615.5228000000002</v>
       </c>
     </row>
@@ -25430,7 +26264,7 @@
         <v>40</v>
       </c>
       <c r="C796">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3620.1660000000002</v>
       </c>
     </row>
@@ -25442,7 +26276,7 @@
         <v>40</v>
       </c>
       <c r="C797">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3624.8092000000001</v>
       </c>
     </row>
@@ -25454,7 +26288,7 @@
         <v>49</v>
       </c>
       <c r="C798">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3629.4524000000001</v>
       </c>
     </row>
@@ -25466,7 +26300,7 @@
         <v>60</v>
       </c>
       <c r="C799">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3634.0956000000001</v>
       </c>
     </row>
@@ -25478,7 +26312,7 @@
         <v>46</v>
       </c>
       <c r="C800">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3638.7388000000001</v>
       </c>
     </row>
@@ -25490,7 +26324,7 @@
         <v>58</v>
       </c>
       <c r="C801">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3643.3820000000005</v>
       </c>
     </row>
@@ -25502,7 +26336,7 @@
         <v>37</v>
       </c>
       <c r="C802">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3648.0252000000005</v>
       </c>
     </row>
@@ -25514,7 +26348,7 @@
         <v>43</v>
       </c>
       <c r="C803">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3652.6684000000005</v>
       </c>
     </row>
@@ -25526,7 +26360,7 @@
         <v>58</v>
       </c>
       <c r="C804">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3657.3116000000005</v>
       </c>
     </row>
@@ -25538,7 +26372,7 @@
         <v>41</v>
       </c>
       <c r="C805">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3661.9548000000004</v>
       </c>
     </row>
@@ -25550,7 +26384,7 @@
         <v>52</v>
       </c>
       <c r="C806">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3666.5980000000004</v>
       </c>
     </row>
@@ -25562,7 +26396,7 @@
         <v>52</v>
       </c>
       <c r="C807">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3671.2412000000004</v>
       </c>
     </row>
@@ -25574,7 +26408,7 @@
         <v>48</v>
       </c>
       <c r="C808">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3675.8844000000004</v>
       </c>
     </row>
@@ -25586,7 +26420,7 @@
         <v>51</v>
       </c>
       <c r="C809">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3680.5276000000003</v>
       </c>
     </row>
@@ -25598,7 +26432,7 @@
         <v>41</v>
       </c>
       <c r="C810">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3685.1708000000003</v>
       </c>
     </row>
@@ -25610,7 +26444,7 @@
         <v>42</v>
       </c>
       <c r="C811">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3689.8140000000003</v>
       </c>
     </row>
@@ -25622,7 +26456,7 @@
         <v>36</v>
       </c>
       <c r="C812">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3694.4572000000003</v>
       </c>
     </row>
@@ -25634,7 +26468,7 @@
         <v>43</v>
       </c>
       <c r="C813">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3699.1004000000003</v>
       </c>
     </row>
@@ -25646,7 +26480,7 @@
         <v>44</v>
       </c>
       <c r="C814">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3703.7436000000002</v>
       </c>
     </row>
@@ -25658,7 +26492,7 @@
         <v>49</v>
       </c>
       <c r="C815">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3708.3868000000002</v>
       </c>
     </row>
@@ -25670,7 +26504,7 @@
         <v>51</v>
       </c>
       <c r="C816">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3713.03</v>
       </c>
     </row>
@@ -25682,7 +26516,7 @@
         <v>36</v>
       </c>
       <c r="C817">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3717.6732000000002</v>
       </c>
     </row>
@@ -25694,7 +26528,7 @@
         <v>45</v>
       </c>
       <c r="C818">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3722.3164000000002</v>
       </c>
     </row>
@@ -25706,7 +26540,7 @@
         <v>43</v>
       </c>
       <c r="C819">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3726.9596000000001</v>
       </c>
     </row>
@@ -25718,7 +26552,7 @@
         <v>56</v>
       </c>
       <c r="C820">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3731.6028000000001</v>
       </c>
     </row>
@@ -25730,7 +26564,7 @@
         <v>45</v>
       </c>
       <c r="C821">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3736.2460000000001</v>
       </c>
     </row>
@@ -25742,7 +26576,7 @@
         <v>37</v>
       </c>
       <c r="C822">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3740.8892000000001</v>
       </c>
     </row>
@@ -25754,7 +26588,7 @@
         <v>37</v>
       </c>
       <c r="C823">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3745.5324000000005</v>
       </c>
     </row>
@@ -25766,7 +26600,7 @@
         <v>41</v>
       </c>
       <c r="C824">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3750.1756000000005</v>
       </c>
     </row>
@@ -25778,7 +26612,7 @@
         <v>48</v>
       </c>
       <c r="C825">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3754.8188000000005</v>
       </c>
     </row>
@@ -25790,7 +26624,7 @@
         <v>43</v>
       </c>
       <c r="C826">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3759.4620000000004</v>
       </c>
     </row>
@@ -25802,7 +26636,7 @@
         <v>39</v>
       </c>
       <c r="C827">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3764.1052000000004</v>
       </c>
     </row>
@@ -25814,7 +26648,7 @@
         <v>48</v>
       </c>
       <c r="C828">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3768.7484000000004</v>
       </c>
     </row>
@@ -25826,7 +26660,7 @@
         <v>57</v>
       </c>
       <c r="C829">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3773.3916000000004</v>
       </c>
     </row>
@@ -25838,7 +26672,7 @@
         <v>46</v>
       </c>
       <c r="C830">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3778.0348000000004</v>
       </c>
     </row>
@@ -25850,7 +26684,7 @@
         <v>43</v>
       </c>
       <c r="C831">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3782.6780000000003</v>
       </c>
     </row>
@@ -25862,7 +26696,7 @@
         <v>43</v>
       </c>
       <c r="C832">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3787.3212000000003</v>
       </c>
     </row>
@@ -25874,7 +26708,7 @@
         <v>39</v>
       </c>
       <c r="C833">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3791.9644000000003</v>
       </c>
     </row>
@@ -25886,7 +26720,7 @@
         <v>36</v>
       </c>
       <c r="C834">
-        <f t="shared" ref="C834:C897" si="13">A834*$F$3+$F$2</f>
+        <f t="shared" ref="C834:C897" si="18">A834*$F$3+$F$2</f>
         <v>3796.6076000000003</v>
       </c>
     </row>
@@ -25898,7 +26732,7 @@
         <v>53</v>
       </c>
       <c r="C835">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3801.2508000000003</v>
       </c>
     </row>
@@ -25910,7 +26744,7 @@
         <v>37</v>
       </c>
       <c r="C836">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3805.8940000000002</v>
       </c>
     </row>
@@ -25922,7 +26756,7 @@
         <v>47</v>
       </c>
       <c r="C837">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3810.5372000000002</v>
       </c>
     </row>
@@ -25934,7 +26768,7 @@
         <v>47</v>
       </c>
       <c r="C838">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3815.1804000000002</v>
       </c>
     </row>
@@ -25946,7 +26780,7 @@
         <v>47</v>
       </c>
       <c r="C839">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3819.8236000000002</v>
       </c>
     </row>
@@ -25958,7 +26792,7 @@
         <v>48</v>
       </c>
       <c r="C840">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3824.4668000000001</v>
       </c>
     </row>
@@ -25970,7 +26804,7 @@
         <v>50</v>
       </c>
       <c r="C841">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3829.11</v>
       </c>
     </row>
@@ -25982,7 +26816,7 @@
         <v>41</v>
       </c>
       <c r="C842">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3833.7532000000001</v>
       </c>
     </row>
@@ -25994,7 +26828,7 @@
         <v>41</v>
       </c>
       <c r="C843">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3838.3964000000001</v>
       </c>
     </row>
@@ -26006,7 +26840,7 @@
         <v>43</v>
       </c>
       <c r="C844">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3843.0396000000005</v>
       </c>
     </row>
@@ -26018,7 +26852,7 @@
         <v>44</v>
       </c>
       <c r="C845">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3847.6828000000005</v>
       </c>
     </row>
@@ -26030,7 +26864,7 @@
         <v>46</v>
       </c>
       <c r="C846">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3852.3260000000005</v>
       </c>
     </row>
@@ -26042,7 +26876,7 @@
         <v>45</v>
       </c>
       <c r="C847">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3856.9692000000005</v>
       </c>
     </row>
@@ -26054,7 +26888,7 @@
         <v>47</v>
       </c>
       <c r="C848">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3861.6124000000004</v>
       </c>
     </row>
@@ -26066,7 +26900,7 @@
         <v>29</v>
       </c>
       <c r="C849">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3866.2556000000004</v>
       </c>
     </row>
@@ -26078,7 +26912,7 @@
         <v>42</v>
       </c>
       <c r="C850">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3870.8988000000004</v>
       </c>
     </row>
@@ -26090,7 +26924,7 @@
         <v>40</v>
       </c>
       <c r="C851">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3875.5420000000004</v>
       </c>
     </row>
@@ -26102,7 +26936,7 @@
         <v>57</v>
       </c>
       <c r="C852">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3880.1852000000003</v>
       </c>
     </row>
@@ -26114,7 +26948,7 @@
         <v>63</v>
       </c>
       <c r="C853">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3884.8284000000003</v>
       </c>
     </row>
@@ -26126,7 +26960,7 @@
         <v>51</v>
       </c>
       <c r="C854">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3889.4716000000003</v>
       </c>
     </row>
@@ -26138,7 +26972,7 @@
         <v>40</v>
       </c>
       <c r="C855">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3894.1148000000003</v>
       </c>
     </row>
@@ -26150,7 +26984,7 @@
         <v>38</v>
       </c>
       <c r="C856">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3898.7580000000003</v>
       </c>
     </row>
@@ -26162,7 +26996,7 @@
         <v>43</v>
       </c>
       <c r="C857">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3903.4012000000002</v>
       </c>
     </row>
@@ -26174,7 +27008,7 @@
         <v>47</v>
       </c>
       <c r="C858">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3908.0444000000002</v>
       </c>
     </row>
@@ -26186,7 +27020,7 @@
         <v>45</v>
       </c>
       <c r="C859">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3912.6876000000002</v>
       </c>
     </row>
@@ -26198,7 +27032,7 @@
         <v>37</v>
       </c>
       <c r="C860">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3917.3308000000002</v>
       </c>
     </row>
@@ -26210,7 +27044,7 @@
         <v>40</v>
       </c>
       <c r="C861">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3921.9740000000002</v>
       </c>
     </row>
@@ -26222,7 +27056,7 @@
         <v>37</v>
       </c>
       <c r="C862">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3926.6172000000001</v>
       </c>
     </row>
@@ -26234,7 +27068,7 @@
         <v>44</v>
       </c>
       <c r="C863">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3931.2604000000001</v>
       </c>
     </row>
@@ -26246,7 +27080,7 @@
         <v>36</v>
       </c>
       <c r="C864">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3935.9036000000001</v>
       </c>
     </row>
@@ -26258,7 +27092,7 @@
         <v>46</v>
       </c>
       <c r="C865">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3940.5468000000001</v>
       </c>
     </row>
@@ -26270,7 +27104,7 @@
         <v>37</v>
       </c>
       <c r="C866">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3945.1900000000005</v>
       </c>
     </row>
@@ -26282,7 +27116,7 @@
         <v>40</v>
       </c>
       <c r="C867">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3949.8332000000005</v>
       </c>
     </row>
@@ -26294,7 +27128,7 @@
         <v>49</v>
       </c>
       <c r="C868">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3954.4764000000005</v>
       </c>
     </row>
@@ -26306,7 +27140,7 @@
         <v>41</v>
       </c>
       <c r="C869">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3959.1196000000004</v>
       </c>
     </row>
@@ -26318,7 +27152,7 @@
         <v>29</v>
       </c>
       <c r="C870">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3963.7628000000004</v>
       </c>
     </row>
@@ -26330,7 +27164,7 @@
         <v>44</v>
       </c>
       <c r="C871">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3968.4060000000004</v>
       </c>
     </row>
@@ -26342,7 +27176,7 @@
         <v>33</v>
       </c>
       <c r="C872">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3973.0492000000004</v>
       </c>
     </row>
@@ -26354,7 +27188,7 @@
         <v>36</v>
       </c>
       <c r="C873">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3977.6924000000004</v>
       </c>
     </row>
@@ -26366,7 +27200,7 @@
         <v>47</v>
       </c>
       <c r="C874">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3982.3356000000003</v>
       </c>
     </row>
@@ -26378,7 +27212,7 @@
         <v>34</v>
       </c>
       <c r="C875">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3986.9788000000003</v>
       </c>
     </row>
@@ -26390,7 +27224,7 @@
         <v>40</v>
       </c>
       <c r="C876">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3991.6220000000003</v>
       </c>
     </row>
@@ -26402,7 +27236,7 @@
         <v>39</v>
       </c>
       <c r="C877">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3996.2652000000003</v>
       </c>
     </row>
@@ -26414,7 +27248,7 @@
         <v>50</v>
       </c>
       <c r="C878">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4000.9084000000003</v>
       </c>
     </row>
@@ -26426,7 +27260,7 @@
         <v>43</v>
       </c>
       <c r="C879">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4005.5516000000002</v>
       </c>
     </row>
@@ -26438,7 +27272,7 @@
         <v>31</v>
       </c>
       <c r="C880">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4010.1948000000002</v>
       </c>
     </row>
@@ -26450,7 +27284,7 @@
         <v>37</v>
       </c>
       <c r="C881">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4014.8380000000002</v>
       </c>
     </row>
@@ -26462,7 +27296,7 @@
         <v>33</v>
       </c>
       <c r="C882">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4019.4812000000002</v>
       </c>
     </row>
@@ -26474,7 +27308,7 @@
         <v>50</v>
       </c>
       <c r="C883">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4024.1244000000002</v>
       </c>
     </row>
@@ -26486,7 +27320,7 @@
         <v>40</v>
       </c>
       <c r="C884">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4028.7676000000001</v>
       </c>
     </row>
@@ -26498,7 +27332,7 @@
         <v>46</v>
       </c>
       <c r="C885">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4033.4108000000006</v>
       </c>
     </row>
@@ -26510,7 +27344,7 @@
         <v>44</v>
       </c>
       <c r="C886">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4038.0540000000001</v>
       </c>
     </row>
@@ -26522,7 +27356,7 @@
         <v>24</v>
       </c>
       <c r="C887">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4042.6972000000005</v>
       </c>
     </row>
@@ -26534,7 +27368,7 @@
         <v>46</v>
       </c>
       <c r="C888">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4047.3404</v>
       </c>
     </row>
@@ -26546,7 +27380,7 @@
         <v>37</v>
       </c>
       <c r="C889">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4051.9836000000005</v>
       </c>
     </row>
@@ -26558,7 +27392,7 @@
         <v>34</v>
       </c>
       <c r="C890">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4056.6268</v>
       </c>
     </row>
@@ -26570,7 +27404,7 @@
         <v>46</v>
       </c>
       <c r="C891">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4061.2700000000004</v>
       </c>
     </row>
@@ -26582,7 +27416,7 @@
         <v>48</v>
       </c>
       <c r="C892">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4065.9132</v>
       </c>
     </row>
@@ -26594,7 +27428,7 @@
         <v>44</v>
       </c>
       <c r="C893">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4070.5564000000004</v>
       </c>
     </row>
@@ -26606,7 +27440,7 @@
         <v>34</v>
       </c>
       <c r="C894">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4075.1995999999999</v>
       </c>
     </row>
@@ -26618,7 +27452,7 @@
         <v>34</v>
       </c>
       <c r="C895">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4079.8428000000004</v>
       </c>
     </row>
@@ -26630,7 +27464,7 @@
         <v>41</v>
       </c>
       <c r="C896">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4084.4859999999999</v>
       </c>
     </row>
@@ -26642,7 +27476,7 @@
         <v>51</v>
       </c>
       <c r="C897">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4089.1292000000003</v>
       </c>
     </row>
@@ -26654,7 +27488,7 @@
         <v>32</v>
       </c>
       <c r="C898">
-        <f t="shared" ref="C898:C961" si="14">A898*$F$3+$F$2</f>
+        <f t="shared" ref="C898:C961" si="19">A898*$F$3+$F$2</f>
         <v>4093.7724000000007</v>
       </c>
     </row>
@@ -26666,7 +27500,7 @@
         <v>34</v>
       </c>
       <c r="C899">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4098.4156000000003</v>
       </c>
     </row>
@@ -26678,7 +27512,7 @@
         <v>41</v>
       </c>
       <c r="C900">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4103.0588000000007</v>
       </c>
     </row>
@@ -26690,7 +27524,7 @@
         <v>49</v>
       </c>
       <c r="C901">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4107.7020000000002</v>
       </c>
     </row>
@@ -26702,7 +27536,7 @@
         <v>49</v>
       </c>
       <c r="C902">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4112.3452000000007</v>
       </c>
     </row>
@@ -26714,7 +27548,7 @@
         <v>35</v>
       </c>
       <c r="C903">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4116.9884000000002</v>
       </c>
     </row>
@@ -26726,7 +27560,7 @@
         <v>36</v>
       </c>
       <c r="C904">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4121.6316000000006</v>
       </c>
     </row>
@@ -26738,7 +27572,7 @@
         <v>37</v>
       </c>
       <c r="C905">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4126.2748000000001</v>
       </c>
     </row>
@@ -26750,7 +27584,7 @@
         <v>52</v>
       </c>
       <c r="C906">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4130.9180000000006</v>
       </c>
     </row>
@@ -26762,7 +27596,7 @@
         <v>34</v>
       </c>
       <c r="C907">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4135.5612000000001</v>
       </c>
     </row>
@@ -26774,7 +27608,7 @@
         <v>26</v>
       </c>
       <c r="C908">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4140.2044000000005</v>
       </c>
     </row>
@@ -26786,7 +27620,7 @@
         <v>32</v>
       </c>
       <c r="C909">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4144.8476000000001</v>
       </c>
     </row>
@@ -26798,7 +27632,7 @@
         <v>58</v>
       </c>
       <c r="C910">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4149.4908000000005</v>
       </c>
     </row>
@@ -26810,7 +27644,7 @@
         <v>40</v>
       </c>
       <c r="C911">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4154.134</v>
       </c>
     </row>
@@ -26822,7 +27656,7 @@
         <v>28</v>
       </c>
       <c r="C912">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4158.7772000000004</v>
       </c>
     </row>
@@ -26834,7 +27668,7 @@
         <v>45</v>
       </c>
       <c r="C913">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4163.4204</v>
       </c>
     </row>
@@ -26846,7 +27680,7 @@
         <v>42</v>
       </c>
       <c r="C914">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4168.0636000000004</v>
       </c>
     </row>
@@ -26858,7 +27692,7 @@
         <v>43</v>
       </c>
       <c r="C915">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4172.7067999999999</v>
       </c>
     </row>
@@ -26870,7 +27704,7 @@
         <v>46</v>
       </c>
       <c r="C916">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4177.3500000000004</v>
       </c>
     </row>
@@ -26882,7 +27716,7 @@
         <v>39</v>
       </c>
       <c r="C917">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4181.9931999999999</v>
       </c>
     </row>
@@ -26894,7 +27728,7 @@
         <v>41</v>
       </c>
       <c r="C918">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4186.6364000000003</v>
       </c>
     </row>
@@ -26906,7 +27740,7 @@
         <v>42</v>
       </c>
       <c r="C919">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4191.2796000000008</v>
       </c>
     </row>
@@ -26918,7 +27752,7 @@
         <v>31</v>
       </c>
       <c r="C920">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4195.9228000000003</v>
       </c>
     </row>
@@ -26930,7 +27764,7 @@
         <v>38</v>
       </c>
       <c r="C921">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4200.5660000000007</v>
       </c>
     </row>
@@ -26942,7 +27776,7 @@
         <v>52</v>
       </c>
       <c r="C922">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4205.2092000000002</v>
       </c>
     </row>
@@ -26954,7 +27788,7 @@
         <v>49</v>
       </c>
       <c r="C923">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4209.8524000000007</v>
       </c>
     </row>
@@ -26966,7 +27800,7 @@
         <v>50</v>
       </c>
       <c r="C924">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4214.4956000000002</v>
       </c>
     </row>
@@ -26978,7 +27812,7 @@
         <v>40</v>
       </c>
       <c r="C925">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4219.1388000000006</v>
       </c>
     </row>
@@ -26990,7 +27824,7 @@
         <v>39</v>
       </c>
       <c r="C926">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4223.7820000000002</v>
       </c>
     </row>
@@ -27002,7 +27836,7 @@
         <v>38</v>
       </c>
       <c r="C927">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4228.4252000000006</v>
       </c>
     </row>
@@ -27014,7 +27848,7 @@
         <v>36</v>
       </c>
       <c r="C928">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4233.0684000000001</v>
       </c>
     </row>
@@ -27026,7 +27860,7 @@
         <v>44</v>
       </c>
       <c r="C929">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4237.7116000000005</v>
       </c>
     </row>
@@ -27038,7 +27872,7 @@
         <v>32</v>
       </c>
       <c r="C930">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4242.3548000000001</v>
       </c>
     </row>
@@ -27050,7 +27884,7 @@
         <v>38</v>
       </c>
       <c r="C931">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4246.9980000000005</v>
       </c>
     </row>
@@ -27062,7 +27896,7 @@
         <v>39</v>
       </c>
       <c r="C932">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4251.6412</v>
       </c>
     </row>
@@ -27074,7 +27908,7 @@
         <v>41</v>
       </c>
       <c r="C933">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4256.2844000000005</v>
       </c>
     </row>
@@ -27086,7 +27920,7 @@
         <v>35</v>
       </c>
       <c r="C934">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4260.9276</v>
       </c>
     </row>
@@ -27098,7 +27932,7 @@
         <v>28</v>
       </c>
       <c r="C935">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4265.5708000000004</v>
       </c>
     </row>
@@ -27110,7 +27944,7 @@
         <v>46</v>
       </c>
       <c r="C936">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4270.2139999999999</v>
       </c>
     </row>
@@ -27122,7 +27956,7 @@
         <v>39</v>
       </c>
       <c r="C937">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4274.8572000000004</v>
       </c>
     </row>
@@ -27134,7 +27968,7 @@
         <v>48</v>
       </c>
       <c r="C938">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4279.5003999999999</v>
       </c>
     </row>
@@ -27146,7 +27980,7 @@
         <v>45</v>
       </c>
       <c r="C939">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4284.1436000000003</v>
       </c>
     </row>
@@ -27158,7 +27992,7 @@
         <v>39</v>
       </c>
       <c r="C940">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4288.7868000000008</v>
       </c>
     </row>
@@ -27170,7 +28004,7 @@
         <v>45</v>
       </c>
       <c r="C941">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4293.43</v>
       </c>
     </row>
@@ -27182,7 +28016,7 @@
         <v>46</v>
       </c>
       <c r="C942">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4298.0732000000007</v>
       </c>
     </row>
@@ -27194,7 +28028,7 @@
         <v>40</v>
       </c>
       <c r="C943">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4302.7164000000002</v>
       </c>
     </row>
@@ -27206,7 +28040,7 @@
         <v>44</v>
       </c>
       <c r="C944">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4307.3596000000007</v>
       </c>
     </row>
@@ -27218,7 +28052,7 @@
         <v>36</v>
       </c>
       <c r="C945">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4312.0028000000002</v>
       </c>
     </row>
@@ -27230,7 +28064,7 @@
         <v>33</v>
       </c>
       <c r="C946">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4316.6460000000006</v>
       </c>
     </row>
@@ -27242,7 +28076,7 @@
         <v>34</v>
       </c>
       <c r="C947">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4321.2892000000002</v>
       </c>
     </row>
@@ -27254,7 +28088,7 @@
         <v>45</v>
       </c>
       <c r="C948">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4325.9324000000006</v>
       </c>
     </row>
@@ -27266,7 +28100,7 @@
         <v>43</v>
       </c>
       <c r="C949">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4330.5756000000001</v>
       </c>
     </row>
@@ -27278,7 +28112,7 @@
         <v>40</v>
       </c>
       <c r="C950">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4335.2188000000006</v>
       </c>
     </row>
@@ -27290,7 +28124,7 @@
         <v>36</v>
       </c>
       <c r="C951">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4339.8620000000001</v>
       </c>
     </row>
@@ -27302,7 +28136,7 @@
         <v>29</v>
       </c>
       <c r="C952">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4344.5052000000005</v>
       </c>
     </row>
@@ -27314,7 +28148,7 @@
         <v>37</v>
       </c>
       <c r="C953">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4349.1484</v>
       </c>
     </row>
@@ -27326,7 +28160,7 @@
         <v>39</v>
       </c>
       <c r="C954">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4353.7916000000005</v>
       </c>
     </row>
@@ -27338,7 +28172,7 @@
         <v>37</v>
       </c>
       <c r="C955">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4358.4348</v>
       </c>
     </row>
@@ -27350,7 +28184,7 @@
         <v>45</v>
       </c>
       <c r="C956">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4363.0780000000004</v>
       </c>
     </row>
@@ -27362,7 +28196,7 @@
         <v>36</v>
       </c>
       <c r="C957">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4367.7212</v>
       </c>
     </row>
@@ -27374,7 +28208,7 @@
         <v>36</v>
       </c>
       <c r="C958">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4372.3644000000004</v>
       </c>
     </row>
@@ -27386,7 +28220,7 @@
         <v>32</v>
       </c>
       <c r="C959">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4377.0075999999999</v>
       </c>
     </row>
@@ -27398,7 +28232,7 @@
         <v>36</v>
       </c>
       <c r="C960">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4381.6508000000003</v>
       </c>
     </row>
@@ -27410,7 +28244,7 @@
         <v>38</v>
       </c>
       <c r="C961">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4386.2939999999999</v>
       </c>
     </row>
@@ -27422,7 +28256,7 @@
         <v>31</v>
       </c>
       <c r="C962">
-        <f t="shared" ref="C962:C1024" si="15">A962*$F$3+$F$2</f>
+        <f t="shared" ref="C962:C1024" si="20">A962*$F$3+$F$2</f>
         <v>4390.9372000000003</v>
       </c>
     </row>
@@ -27434,7 +28268,7 @@
         <v>45</v>
       </c>
       <c r="C963">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4395.5804000000007</v>
       </c>
     </row>
@@ -27446,7 +28280,7 @@
         <v>38</v>
       </c>
       <c r="C964">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4400.2236000000003</v>
       </c>
     </row>
@@ -27458,7 +28292,7 @@
         <v>40</v>
       </c>
       <c r="C965">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4404.8668000000007</v>
       </c>
     </row>
@@ -27470,7 +28304,7 @@
         <v>38</v>
       </c>
       <c r="C966">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4409.51</v>
       </c>
     </row>
@@ -27482,7 +28316,7 @@
         <v>29</v>
       </c>
       <c r="C967">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4414.1532000000007</v>
       </c>
     </row>
@@ -27494,7 +28328,7 @@
         <v>43</v>
       </c>
       <c r="C968">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4418.7964000000002</v>
       </c>
     </row>
@@ -27506,7 +28340,7 @@
         <v>43</v>
       </c>
       <c r="C969">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4423.4396000000006</v>
       </c>
     </row>
@@ -27518,7 +28352,7 @@
         <v>49</v>
       </c>
       <c r="C970">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4428.0828000000001</v>
       </c>
     </row>
@@ -27530,7 +28364,7 @@
         <v>46</v>
       </c>
       <c r="C971">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4432.7260000000006</v>
       </c>
     </row>
@@ -27542,7 +28376,7 @@
         <v>36</v>
       </c>
       <c r="C972">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4437.3692000000001</v>
       </c>
     </row>
@@ -27554,7 +28388,7 @@
         <v>33</v>
       </c>
       <c r="C973">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4442.0124000000005</v>
       </c>
     </row>
@@ -27566,7 +28400,7 @@
         <v>40</v>
       </c>
       <c r="C974">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4446.6556</v>
       </c>
     </row>
@@ -27578,7 +28412,7 @@
         <v>40</v>
       </c>
       <c r="C975">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4451.2988000000005</v>
       </c>
     </row>
@@ -27590,7 +28424,7 @@
         <v>42</v>
       </c>
       <c r="C976">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4455.942</v>
       </c>
     </row>
@@ -27602,7 +28436,7 @@
         <v>31</v>
       </c>
       <c r="C977">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4460.5852000000004</v>
       </c>
     </row>
@@ -27614,7 +28448,7 @@
         <v>29</v>
       </c>
       <c r="C978">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4465.2284</v>
       </c>
     </row>
@@ -27626,7 +28460,7 @@
         <v>29</v>
       </c>
       <c r="C979">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4469.8716000000004</v>
       </c>
     </row>
@@ -27638,7 +28472,7 @@
         <v>32</v>
       </c>
       <c r="C980">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4474.5147999999999</v>
       </c>
     </row>
@@ -27650,7 +28484,7 @@
         <v>44</v>
       </c>
       <c r="C981">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4479.1580000000004</v>
       </c>
     </row>
@@ -27662,7 +28496,7 @@
         <v>37</v>
       </c>
       <c r="C982">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4483.8011999999999</v>
       </c>
     </row>
@@ -27674,7 +28508,7 @@
         <v>42</v>
       </c>
       <c r="C983">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4488.4444000000003</v>
       </c>
     </row>
@@ -27686,7 +28520,7 @@
         <v>36</v>
       </c>
       <c r="C984">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4493.0876000000007</v>
       </c>
     </row>
@@ -27698,7 +28532,7 @@
         <v>39</v>
       </c>
       <c r="C985">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4497.7308000000003</v>
       </c>
     </row>
@@ -27710,7 +28544,7 @@
         <v>39</v>
       </c>
       <c r="C986">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4502.3740000000007</v>
       </c>
     </row>
@@ -27722,7 +28556,7 @@
         <v>35</v>
       </c>
       <c r="C987">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4507.0172000000002</v>
       </c>
     </row>
@@ -27734,7 +28568,7 @@
         <v>23</v>
       </c>
       <c r="C988">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4511.6604000000007</v>
       </c>
     </row>
@@ -27746,7 +28580,7 @@
         <v>42</v>
       </c>
       <c r="C989">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4516.3036000000002</v>
       </c>
     </row>
@@ -27758,7 +28592,7 @@
         <v>25</v>
       </c>
       <c r="C990">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4520.9468000000006</v>
       </c>
     </row>
@@ -27770,7 +28604,7 @@
         <v>33</v>
       </c>
       <c r="C991">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4525.59</v>
       </c>
     </row>
@@ -27782,7 +28616,7 @@
         <v>35</v>
       </c>
       <c r="C992">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4530.2332000000006</v>
       </c>
     </row>
@@ -27794,7 +28628,7 @@
         <v>38</v>
       </c>
       <c r="C993">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4534.8764000000001</v>
       </c>
     </row>
@@ -27806,7 +28640,7 @@
         <v>41</v>
       </c>
       <c r="C994">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4539.5196000000005</v>
       </c>
     </row>
@@ -27818,7 +28652,7 @@
         <v>32</v>
       </c>
       <c r="C995">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4544.1628000000001</v>
       </c>
     </row>
@@ -27830,7 +28664,7 @@
         <v>27</v>
       </c>
       <c r="C996">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4548.8060000000005</v>
       </c>
     </row>
@@ -27842,7 +28676,7 @@
         <v>28</v>
       </c>
       <c r="C997">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4553.4492</v>
       </c>
     </row>
@@ -27854,7 +28688,7 @@
         <v>38</v>
       </c>
       <c r="C998">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4558.0924000000005</v>
       </c>
     </row>
@@ -27866,7 +28700,7 @@
         <v>36</v>
       </c>
       <c r="C999">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4562.7356</v>
       </c>
     </row>
@@ -27878,7 +28712,7 @@
         <v>41</v>
       </c>
       <c r="C1000">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4567.3788000000004</v>
       </c>
     </row>
@@ -27890,7 +28724,7 @@
         <v>25</v>
       </c>
       <c r="C1001">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4572.0219999999999</v>
       </c>
     </row>
@@ -27902,7 +28736,7 @@
         <v>48</v>
       </c>
       <c r="C1002">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4576.6652000000004</v>
       </c>
     </row>
@@ -27914,7 +28748,7 @@
         <v>31</v>
       </c>
       <c r="C1003">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4581.3083999999999</v>
       </c>
     </row>
@@ -27926,7 +28760,7 @@
         <v>41</v>
       </c>
       <c r="C1004">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4585.9516000000003</v>
       </c>
     </row>
@@ -27938,7 +28772,7 @@
         <v>33</v>
       </c>
       <c r="C1005">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4590.5948000000008</v>
       </c>
     </row>
@@ -27950,7 +28784,7 @@
         <v>36</v>
       </c>
       <c r="C1006">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4595.2380000000003</v>
       </c>
     </row>
@@ -27962,7 +28796,7 @@
         <v>29</v>
       </c>
       <c r="C1007">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4599.8812000000007</v>
       </c>
     </row>
@@ -27974,7 +28808,7 @@
         <v>37</v>
       </c>
       <c r="C1008">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4604.5244000000002</v>
       </c>
     </row>
@@ -27986,7 +28820,7 @@
         <v>39</v>
       </c>
       <c r="C1009">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4609.1676000000007</v>
       </c>
     </row>
@@ -27998,7 +28832,7 @@
         <v>32</v>
       </c>
       <c r="C1010">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4613.8108000000002</v>
       </c>
     </row>
@@ -28010,7 +28844,7 @@
         <v>27</v>
       </c>
       <c r="C1011">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4618.4540000000006</v>
       </c>
     </row>
@@ -28022,7 +28856,7 @@
         <v>41</v>
       </c>
       <c r="C1012">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4623.0972000000002</v>
       </c>
     </row>
@@ -28034,7 +28868,7 @@
         <v>36</v>
       </c>
       <c r="C1013">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4627.7404000000006</v>
       </c>
     </row>
@@ -28046,7 +28880,7 @@
         <v>29</v>
       </c>
       <c r="C1014">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4632.3836000000001</v>
       </c>
     </row>
@@ -28058,7 +28892,7 @@
         <v>31</v>
       </c>
       <c r="C1015">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4637.0268000000005</v>
       </c>
     </row>
@@ -28070,7 +28904,7 @@
         <v>34</v>
       </c>
       <c r="C1016">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4641.67</v>
       </c>
     </row>
@@ -28082,7 +28916,7 @@
         <v>29</v>
       </c>
       <c r="C1017">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4646.3132000000005</v>
       </c>
     </row>
@@ -28094,7 +28928,7 @@
         <v>31</v>
       </c>
       <c r="C1018">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4650.9564</v>
       </c>
     </row>
@@ -28106,7 +28940,7 @@
         <v>30</v>
       </c>
       <c r="C1019">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4655.5996000000005</v>
       </c>
     </row>
@@ -28118,7 +28952,7 @@
         <v>33</v>
       </c>
       <c r="C1020">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4660.2428</v>
       </c>
     </row>
@@ -28130,7 +28964,7 @@
         <v>30</v>
       </c>
       <c r="C1021">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4664.8860000000004</v>
       </c>
     </row>
@@ -28142,7 +28976,7 @@
         <v>35</v>
       </c>
       <c r="C1022">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4669.5291999999999</v>
       </c>
     </row>
@@ -28154,7 +28988,7 @@
         <v>27</v>
       </c>
       <c r="C1023">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4674.1724000000004</v>
       </c>
     </row>
@@ -28166,7 +29000,7 @@
         <v>33</v>
       </c>
       <c r="C1024">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4678.8155999999999</v>
       </c>
     </row>
